--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\linmodr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\statistics\linmodr_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10668" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Autumn_2023" sheetId="6" r:id="rId1"/>
-    <sheet name="Autumn_2022" sheetId="1" r:id="rId2"/>
-    <sheet name="Autumn_2021" sheetId="2" r:id="rId3"/>
-    <sheet name="Autumn_2020" sheetId="3" r:id="rId4"/>
-    <sheet name="Autumn" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="2025" sheetId="7" r:id="rId1"/>
+    <sheet name="Autumn_2023" sheetId="6" r:id="rId2"/>
+    <sheet name="Autumn_2022" sheetId="1" r:id="rId3"/>
+    <sheet name="Autumn_2021" sheetId="2" r:id="rId4"/>
+    <sheet name="Autumn_2020" sheetId="3" r:id="rId5"/>
+    <sheet name="Autumn" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="178">
   <si>
     <t>Сентябрь</t>
   </si>
@@ -557,6 +558,30 @@
   </si>
   <si>
     <t>27 ноя</t>
+  </si>
+  <si>
+    <t>11 сент</t>
+  </si>
+  <si>
+    <t>15 сент</t>
+  </si>
+  <si>
+    <t>Линейная регрессия</t>
+  </si>
+  <si>
+    <t>Линейная алгебра</t>
+  </si>
+  <si>
+    <t>30 окт</t>
+  </si>
+  <si>
+    <t>3 ноя</t>
+  </si>
+  <si>
+    <t>GAM + на самостоятельное GLMM для бинарных данных</t>
+  </si>
+  <si>
+    <t>Д</t>
   </si>
 </sst>
 </file>
@@ -797,17 +822,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1017,6 +1033,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1367,796 +1395,1079 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="3.5546875" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="3" width="4.109375" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" customWidth="1"/>
+    <col min="11" max="11" width="3.109375" customWidth="1"/>
+    <col min="12" max="12" width="34.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-      <c r="F3" s="21">
+      <c r="H2" s="16"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="21">
+      <c r="C3" s="18">
         <v>3</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="23" t="s">
+      <c r="D3" s="18">
+        <v>4</v>
+      </c>
+      <c r="E3" s="18">
+        <v>5</v>
+      </c>
+      <c r="F3" s="18">
+        <v>6</v>
+      </c>
+      <c r="G3" s="18">
+        <v>7</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="P3" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="Q3" s="20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>4</v>
-      </c>
-      <c r="B4" s="21">
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>8</v>
+      </c>
+      <c r="B4" s="18">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="18">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12</v>
+      </c>
+      <c r="F4" s="18">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2">
+        <v>14</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>15</v>
+      </c>
+      <c r="B5" s="18">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>17</v>
+      </c>
+      <c r="D5" s="18">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>19</v>
+      </c>
+      <c r="F5" s="18">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>21</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P5" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="74">
+        <v>22</v>
+      </c>
+      <c r="B6" s="18">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>24</v>
+      </c>
+      <c r="D6" s="75">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>26</v>
+      </c>
+      <c r="F6" s="18">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2">
+        <v>28</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>156</v>
+      </c>
+      <c r="L6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P6" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="73">
+        <v>29</v>
+      </c>
+      <c r="B7" s="18">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="16"/>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="P7" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="16"/>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" t="s">
+        <v>172</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P8" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>3</v>
+      </c>
+      <c r="F9" s="18">
+        <v>4</v>
+      </c>
+      <c r="G9" s="18">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="H9" s="16"/>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>173</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="P9" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="71">
         <v>6</v>
       </c>
-      <c r="D4" s="21">
+      <c r="B10" s="18">
         <v>7</v>
       </c>
-      <c r="E4" s="5">
+      <c r="C10" s="20">
         <v>8</v>
       </c>
-      <c r="F4" s="21">
+      <c r="D10" s="80">
         <v>9</v>
       </c>
-      <c r="G4" s="5">
+      <c r="E10" s="20">
         <v>10</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" s="75" t="s">
+      <c r="F10" s="18">
+        <v>11</v>
+      </c>
+      <c r="G10" s="20">
+        <v>12</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="Q10" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="73">
+        <v>13</v>
+      </c>
+      <c r="B11" s="18">
+        <v>14</v>
+      </c>
+      <c r="C11" s="20">
+        <v>15</v>
+      </c>
+      <c r="D11" s="75">
+        <v>16</v>
+      </c>
+      <c r="E11" s="20">
+        <v>17</v>
+      </c>
+      <c r="F11" s="18">
+        <v>18</v>
+      </c>
+      <c r="G11" s="20">
+        <v>19</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>162</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="73">
+        <v>20</v>
+      </c>
+      <c r="B12" s="18">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2">
+        <v>22</v>
+      </c>
+      <c r="D12" s="82">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2">
+        <v>24</v>
+      </c>
+      <c r="F12" s="18">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2">
+        <v>26</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="83">
+        <v>27</v>
+      </c>
+      <c r="B13" s="18">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2">
+        <v>29</v>
+      </c>
+      <c r="D13" s="75">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2">
+        <v>31</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="16"/>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" t="s">
+        <v>156</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="P13" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="16"/>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="16"/>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18">
+        <v>2</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="P16" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="86">
+        <v>3</v>
+      </c>
+      <c r="B17" s="85">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="87">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>7</v>
+      </c>
+      <c r="F17" s="18">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2">
+        <v>9</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="73">
+        <v>10</v>
+      </c>
+      <c r="B18" s="18">
         <v>11</v>
       </c>
-      <c r="B5" s="21">
+      <c r="C18" s="2">
         <v>12</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D18" s="75">
         <v>13</v>
       </c>
-      <c r="D5" s="21">
+      <c r="E18" s="2">
         <v>14</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F18" s="18">
         <v>15</v>
       </c>
-      <c r="F5" s="21">
+      <c r="G18" s="2">
         <v>16</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H18" s="16"/>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="P18" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="73">
         <v>17</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="K5" s="76" t="s">
+      <c r="B19" s="18">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>19</v>
+      </c>
+      <c r="D19" s="75">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2">
+        <v>21</v>
+      </c>
+      <c r="F19" s="18">
+        <v>22</v>
+      </c>
+      <c r="G19" s="2">
+        <v>23</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="P19" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="73">
+        <v>24</v>
+      </c>
+      <c r="B20" s="18">
+        <v>25</v>
+      </c>
+      <c r="C20" s="18">
+        <v>26</v>
+      </c>
+      <c r="D20" s="18">
+        <v>27</v>
+      </c>
+      <c r="E20" s="18">
+        <v>28</v>
+      </c>
+      <c r="F20" s="18">
+        <v>29</v>
+      </c>
+      <c r="G20" s="18">
+        <v>30</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="P20" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="16"/>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="P21" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>1</v>
+      </c>
+      <c r="B22" s="91">
+        <v>2</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+      <c r="D22" s="18">
+        <v>4</v>
+      </c>
+      <c r="E22" s="18">
+        <v>5</v>
+      </c>
+      <c r="F22" s="18">
+        <v>6</v>
+      </c>
+      <c r="G22" s="18">
+        <v>7</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="P22" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>8</v>
+      </c>
+      <c r="B23" s="18">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10</v>
+      </c>
+      <c r="D23" s="18">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2">
         <v>12</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="F23" s="18">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="77">
+      <c r="G23" s="2">
+        <v>14</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>15</v>
+      </c>
+      <c r="B24" s="18">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
+        <v>17</v>
+      </c>
+      <c r="D24" s="18">
         <v>18</v>
       </c>
-      <c r="B6" s="21">
+      <c r="E24" s="2">
         <v>19</v>
       </c>
-      <c r="C6" s="5">
+      <c r="F24" s="18">
         <v>20</v>
       </c>
-      <c r="D6" s="78">
+      <c r="G24" s="2">
         <v>21</v>
       </c>
-      <c r="E6" s="5">
+      <c r="H24" s="16"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>22</v>
       </c>
-      <c r="F6" s="21">
+      <c r="B25" s="18">
         <v>23</v>
       </c>
-      <c r="G6" s="5">
+      <c r="C25" s="2">
         <v>24</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="K6" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="76">
+      <c r="D25" s="18">
         <v>25</v>
       </c>
-      <c r="B7" s="21">
+      <c r="E25" s="2">
         <v>26</v>
       </c>
-      <c r="C7" s="5">
+      <c r="F25" s="18">
         <v>27</v>
       </c>
-      <c r="D7" s="78">
+      <c r="G25" s="2">
         <v>28</v>
       </c>
-      <c r="E7" s="5">
+      <c r="H25" s="16"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>29</v>
       </c>
-      <c r="F7" s="21">
+      <c r="B26" s="18">
         <v>30</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="K7" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="K8" s="81" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="K9" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="74">
-        <v>2</v>
-      </c>
-      <c r="B10" s="21">
-        <v>3</v>
-      </c>
-      <c r="C10" s="23">
-        <v>4</v>
-      </c>
-      <c r="D10" s="83">
-        <v>5</v>
-      </c>
-      <c r="E10" s="23">
-        <v>6</v>
-      </c>
-      <c r="F10" s="21">
-        <v>7</v>
-      </c>
-      <c r="G10" s="23">
-        <v>8</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="K10" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="76">
-        <v>9</v>
-      </c>
-      <c r="B11" s="21">
-        <v>10</v>
-      </c>
-      <c r="C11" s="23">
-        <v>11</v>
-      </c>
-      <c r="D11" s="78">
-        <v>12</v>
-      </c>
-      <c r="E11" s="23">
-        <v>13</v>
-      </c>
-      <c r="F11" s="21">
-        <v>14</v>
-      </c>
-      <c r="G11" s="23">
-        <v>15</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="K11" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="76">
-        <v>16</v>
-      </c>
-      <c r="B12" s="21">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5">
-        <v>18</v>
-      </c>
-      <c r="D12" s="85">
-        <v>19</v>
-      </c>
-      <c r="E12" s="5">
-        <v>20</v>
-      </c>
-      <c r="F12" s="21">
-        <v>21</v>
-      </c>
-      <c r="G12" s="5">
-        <v>22</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="86">
-        <v>23</v>
-      </c>
-      <c r="B13" s="21">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5">
-        <v>25</v>
-      </c>
-      <c r="D13" s="78">
-        <v>26</v>
-      </c>
-      <c r="E13" s="5">
-        <v>27</v>
-      </c>
-      <c r="F13" s="21">
-        <v>28</v>
-      </c>
-      <c r="G13" s="5">
-        <v>29</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="K13" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>30</v>
-      </c>
-      <c r="B14" s="21">
-        <v>31</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21">
-        <v>1</v>
-      </c>
-      <c r="D16" s="21">
-        <v>2</v>
-      </c>
-      <c r="E16" s="87">
-        <v>3</v>
-      </c>
-      <c r="F16" s="88">
-        <v>4</v>
-      </c>
-      <c r="G16" s="21">
-        <v>5</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="K16" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="89">
-        <v>6</v>
-      </c>
-      <c r="B17" s="21">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5">
-        <v>8</v>
-      </c>
-      <c r="D17" s="90">
-        <v>9</v>
-      </c>
-      <c r="E17" s="5">
-        <v>10</v>
-      </c>
-      <c r="F17" s="21">
-        <v>11</v>
-      </c>
-      <c r="G17" s="5">
-        <v>12</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="K17" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="76">
-        <v>13</v>
-      </c>
-      <c r="B18" s="21">
-        <v>14</v>
-      </c>
-      <c r="C18" s="5">
-        <v>15</v>
-      </c>
-      <c r="D18" s="78">
-        <v>16</v>
-      </c>
-      <c r="E18" s="5">
-        <v>17</v>
-      </c>
-      <c r="F18" s="21">
-        <v>18</v>
-      </c>
-      <c r="G18" s="5">
-        <v>19</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="K18" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="76">
-        <v>20</v>
-      </c>
-      <c r="B19" s="21">
-        <v>21</v>
-      </c>
-      <c r="C19" s="5">
-        <v>22</v>
-      </c>
-      <c r="D19" s="78">
-        <v>23</v>
-      </c>
-      <c r="E19" s="5">
-        <v>24</v>
-      </c>
-      <c r="F19" s="21">
-        <v>25</v>
-      </c>
-      <c r="G19" s="5">
-        <v>26</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="K19" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="76">
-        <v>27</v>
-      </c>
-      <c r="B20" s="21">
-        <v>28</v>
-      </c>
-      <c r="C20" s="21">
-        <v>29</v>
-      </c>
-      <c r="D20" s="21">
-        <v>30</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="K20" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="K21" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21">
-        <v>1</v>
-      </c>
-      <c r="F22" s="21">
-        <v>2</v>
-      </c>
-      <c r="G22" s="21">
-        <v>3</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="K22" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>4</v>
-      </c>
-      <c r="B23" s="21">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5">
-        <v>6</v>
-      </c>
-      <c r="D23" s="21">
-        <v>7</v>
-      </c>
-      <c r="E23" s="5">
-        <v>8</v>
-      </c>
-      <c r="F23" s="21">
-        <v>9</v>
-      </c>
-      <c r="G23" s="5">
-        <v>10</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>11</v>
-      </c>
-      <c r="B24" s="21">
-        <v>12</v>
-      </c>
-      <c r="C24" s="5">
-        <v>13</v>
-      </c>
-      <c r="D24" s="21">
-        <v>14</v>
-      </c>
-      <c r="E24" s="5">
-        <v>15</v>
-      </c>
-      <c r="F24" s="21">
-        <v>16</v>
-      </c>
-      <c r="G24" s="5">
-        <v>17</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>18</v>
-      </c>
-      <c r="B25" s="21">
-        <v>19</v>
-      </c>
-      <c r="C25" s="5">
-        <v>20</v>
-      </c>
-      <c r="D25" s="21">
-        <v>21</v>
-      </c>
-      <c r="E25" s="5">
-        <v>22</v>
-      </c>
-      <c r="F25" s="21">
-        <v>23</v>
-      </c>
-      <c r="G25" s="5">
-        <v>24</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="21">
-        <v>26</v>
-      </c>
-      <c r="C26" s="5">
-        <v>27</v>
-      </c>
-      <c r="D26" s="21">
-        <v>28</v>
-      </c>
-      <c r="E26" s="5">
-        <v>29</v>
-      </c>
-      <c r="F26" s="21">
-        <v>30</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P43" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2170,6 +2481,811 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="3.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18">
+        <v>3</v>
+      </c>
+      <c r="D3" s="18">
+        <v>4</v>
+      </c>
+      <c r="E3" s="18">
+        <v>5</v>
+      </c>
+      <c r="F3" s="18">
+        <v>6</v>
+      </c>
+      <c r="G3" s="18">
+        <v>7</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>8</v>
+      </c>
+      <c r="B4" s="18">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="18">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12</v>
+      </c>
+      <c r="F4" s="18">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2">
+        <v>14</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>15</v>
+      </c>
+      <c r="B5" s="18">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>17</v>
+      </c>
+      <c r="D5" s="18">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>19</v>
+      </c>
+      <c r="F5" s="18">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>21</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="74">
+        <v>22</v>
+      </c>
+      <c r="B6" s="18">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>24</v>
+      </c>
+      <c r="D6" s="75">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>26</v>
+      </c>
+      <c r="F6" s="18">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2">
+        <v>28</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K6" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="73">
+        <v>29</v>
+      </c>
+      <c r="B7" s="18">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K7" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>3</v>
+      </c>
+      <c r="F9" s="18">
+        <v>4</v>
+      </c>
+      <c r="G9" s="18">
+        <v>5</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="71">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18">
+        <v>7</v>
+      </c>
+      <c r="C10" s="20">
+        <v>8</v>
+      </c>
+      <c r="D10" s="80">
+        <v>9</v>
+      </c>
+      <c r="E10" s="20">
+        <v>10</v>
+      </c>
+      <c r="F10" s="18">
+        <v>11</v>
+      </c>
+      <c r="G10" s="20">
+        <v>12</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="73">
+        <v>13</v>
+      </c>
+      <c r="B11" s="18">
+        <v>14</v>
+      </c>
+      <c r="C11" s="20">
+        <v>15</v>
+      </c>
+      <c r="D11" s="75">
+        <v>16</v>
+      </c>
+      <c r="E11" s="20">
+        <v>17</v>
+      </c>
+      <c r="F11" s="18">
+        <v>18</v>
+      </c>
+      <c r="G11" s="20">
+        <v>19</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="73">
+        <v>20</v>
+      </c>
+      <c r="B12" s="18">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2">
+        <v>22</v>
+      </c>
+      <c r="D12" s="82">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2">
+        <v>24</v>
+      </c>
+      <c r="F12" s="18">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2">
+        <v>26</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="83">
+        <v>27</v>
+      </c>
+      <c r="B13" s="18">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2">
+        <v>29</v>
+      </c>
+      <c r="D13" s="75">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2">
+        <v>31</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18">
+        <v>2</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="86">
+        <v>3</v>
+      </c>
+      <c r="B17" s="85">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="87">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>7</v>
+      </c>
+      <c r="F17" s="18">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2">
+        <v>9</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="73">
+        <v>10</v>
+      </c>
+      <c r="B18" s="18">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2">
+        <v>12</v>
+      </c>
+      <c r="D18" s="75">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2">
+        <v>14</v>
+      </c>
+      <c r="F18" s="18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2">
+        <v>16</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="73">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>19</v>
+      </c>
+      <c r="D19" s="75">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2">
+        <v>21</v>
+      </c>
+      <c r="F19" s="18">
+        <v>22</v>
+      </c>
+      <c r="G19" s="2">
+        <v>23</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="73">
+        <v>24</v>
+      </c>
+      <c r="B20" s="18">
+        <v>25</v>
+      </c>
+      <c r="C20" s="18">
+        <v>26</v>
+      </c>
+      <c r="D20" s="18">
+        <v>27</v>
+      </c>
+      <c r="E20" s="18">
+        <v>28</v>
+      </c>
+      <c r="F20" s="18">
+        <v>29</v>
+      </c>
+      <c r="G20" s="18">
+        <v>30</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>1</v>
+      </c>
+      <c r="B22" s="91">
+        <v>2</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+      <c r="D22" s="18">
+        <v>4</v>
+      </c>
+      <c r="E22" s="18">
+        <v>5</v>
+      </c>
+      <c r="F22" s="18">
+        <v>6</v>
+      </c>
+      <c r="G22" s="18">
+        <v>7</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>8</v>
+      </c>
+      <c r="B23" s="18">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10</v>
+      </c>
+      <c r="D23" s="18">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2">
+        <v>12</v>
+      </c>
+      <c r="F23" s="18">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2">
+        <v>14</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>15</v>
+      </c>
+      <c r="B24" s="18">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
+        <v>17</v>
+      </c>
+      <c r="D24" s="18">
+        <v>18</v>
+      </c>
+      <c r="E24" s="2">
+        <v>19</v>
+      </c>
+      <c r="F24" s="18">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2">
+        <v>21</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="18">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24</v>
+      </c>
+      <c r="D25" s="18">
+        <v>25</v>
+      </c>
+      <c r="E25" s="2">
+        <v>26</v>
+      </c>
+      <c r="F25" s="18">
+        <v>27</v>
+      </c>
+      <c r="G25" s="2">
+        <v>28</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>29</v>
+      </c>
+      <c r="B26" s="18">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A21:G21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
@@ -2190,821 +3306,821 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="6">
-        <v>4</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="G3" s="3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>6</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>7</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>9</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>10</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>11</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>12</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>13</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>14</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>15</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>16</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>17</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <v>18</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>19</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>20</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>21</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>22</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>23</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>24</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>25</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="4"/>
       <c r="I6" t="s">
         <v>4</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="5"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>26</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>27</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>28</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>29</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>30</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="11" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="6">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5">
         <v>5</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>6</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <v>7</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>8</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="5">
         <v>9</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="11" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>11</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>12</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <v>13</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>14</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>15</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="5">
         <v>16</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="11" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="7">
         <v>17</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>18</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="2">
         <v>19</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>20</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="2">
         <v>21</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>22</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="2">
         <v>23</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="11" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="13">
         <v>24</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>25</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="2">
         <v>26</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="9">
         <v>27</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
         <v>28</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3">
         <v>29</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="2">
         <v>30</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="11" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <v>31</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="11" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="7"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
         <v>2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="17">
-        <v>4</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="14">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
         <v>5</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="3">
         <v>6</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="11" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="13">
         <v>7</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <v>8</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="2">
         <v>9</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="9">
         <v>10</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="2">
         <v>11</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="3">
         <v>12</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="2">
         <v>13</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="11" t="s">
+      <c r="H17" s="4"/>
+      <c r="I17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="2">
         <v>16</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="9">
         <v>17</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="2">
         <v>18</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="3">
         <v>19</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="2">
         <v>20</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="11" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="7">
         <v>21</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="3">
         <v>22</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="2">
         <v>23</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="9">
         <v>24</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="2">
         <v>25</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <v>26</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="2">
         <v>27</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="11" t="s">
+      <c r="H19" s="4"/>
+      <c r="I19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="7">
         <v>28</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="3">
         <v>29</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="3">
         <v>30</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="11" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="11" t="s">
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
         <v>2</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="6">
-        <v>4</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="11" t="s">
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="2">
         <v>5</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="3">
         <v>6</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="2">
         <v>7</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="3">
         <v>8</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="2">
         <v>9</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="3">
         <v>10</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="2">
         <v>11</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="2">
         <v>12</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="3">
         <v>13</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="2">
         <v>14</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="3">
         <v>15</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="2">
         <v>16</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="3">
         <v>17</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="2">
         <v>18</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="2">
         <v>19</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="3">
         <v>20</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="2">
         <v>21</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="3">
         <v>22</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="2">
         <v>23</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="3">
         <v>24</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="2">
         <v>25</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="3">
         <v>27</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="2">
         <v>28</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="3">
         <v>29</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="2">
         <v>30</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="7"/>
-      <c r="N26" s="5"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="4"/>
+      <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3022,7 +4138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
@@ -3043,93 +4159,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="C3" s="21">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21">
+      <c r="A3" s="18"/>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18">
         <v>2</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>3</v>
       </c>
-      <c r="F3" s="21">
-        <v>4</v>
-      </c>
-      <c r="G3" s="21">
+      <c r="F3" s="18">
+        <v>4</v>
+      </c>
+      <c r="G3" s="18">
         <v>5</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="18">
         <v>7</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="18">
         <v>8</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="18">
         <v>9</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <v>10</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="18">
         <v>11</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="18">
         <v>12</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="22" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3137,551 +4253,551 @@
       <c r="A5">
         <v>13</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="18">
         <v>14</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="18">
         <v>15</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <v>16</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="22">
         <v>17</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="22">
         <v>18</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="22">
         <v>19</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="26" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
       <c r="M5" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="25">
         <v>20</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>21</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <v>22</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>23</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="22">
         <v>24</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>25</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="22">
         <v>26</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="28" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="N6" s="27" t="s">
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="N6" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="A7" s="25">
         <v>27</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="22">
         <v>28</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="22">
         <v>29</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <v>30</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="19"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="16"/>
       <c r="I7" t="s">
         <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="19"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="16"/>
       <c r="I8" t="s">
         <v>4</v>
       </c>
       <c r="J8" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="25">
-        <v>1</v>
-      </c>
-      <c r="F9" s="25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22">
         <v>2</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="22">
         <v>3</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="27" t="s">
+      <c r="H9" s="16"/>
+      <c r="I9" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27" t="s">
+      <c r="L9" s="24"/>
+      <c r="M9" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
-        <v>4</v>
-      </c>
-      <c r="B10" s="21">
+      <c r="A10" s="26">
+        <v>4</v>
+      </c>
+      <c r="B10" s="18">
         <v>5</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <v>6</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="29">
         <v>7</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="18">
         <v>8</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="18">
         <v>9</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="18">
         <v>10</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="27" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="30">
         <v>11</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="18">
         <v>12</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>13</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="31">
         <v>14</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="18">
         <v>15</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="18">
         <v>16</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="18">
         <v>17</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="27" t="s">
+      <c r="H11" s="16"/>
+      <c r="I11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27" t="s">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+      <c r="A12" s="33">
         <v>18</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="18">
         <v>19</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>20</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="31">
         <v>21</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="18">
         <v>22</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="18">
         <v>23</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="18">
         <v>24</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="27" t="s">
+      <c r="H12" s="16"/>
+      <c r="I12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27" t="s">
+      <c r="L12" s="24"/>
+      <c r="M12" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="37">
+      <c r="A13" s="34">
         <v>25</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="18">
         <v>26</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>27</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="31">
         <v>28</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <v>29</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="18">
         <v>30</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="18">
         <v>31</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="27" t="s">
+      <c r="H13" s="16"/>
+      <c r="I13" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27" t="s">
+      <c r="L13" s="24"/>
+      <c r="M13" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="27" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27" t="s">
+      <c r="L14" s="24"/>
+      <c r="M14" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
-        <v>1</v>
-      </c>
-      <c r="B15" s="21">
+      <c r="A15" s="33">
+        <v>1</v>
+      </c>
+      <c r="B15" s="18">
         <v>2</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>3</v>
       </c>
-      <c r="D15" s="38">
-        <v>4</v>
-      </c>
-      <c r="E15" s="21">
+      <c r="D15" s="35">
+        <v>4</v>
+      </c>
+      <c r="E15" s="18">
         <v>5</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="18">
         <v>6</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="18">
         <v>7</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="27" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27" t="s">
+      <c r="L15" s="24"/>
+      <c r="M15" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+      <c r="A16" s="33">
         <v>8</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="18">
         <v>9</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="18">
         <v>10</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="36">
         <v>11</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="18">
         <v>12</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="18">
         <v>13</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="18">
         <v>14</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="40" t="s">
+      <c r="H16" s="16"/>
+      <c r="I16" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="27"/>
+      <c r="L16" s="24"/>
       <c r="M16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="37">
+      <c r="A17" s="34">
         <v>15</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="18">
         <v>16</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="18">
         <v>17</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="36">
         <v>18</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="18">
         <v>19</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="18">
         <v>20</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="18">
         <v>21</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="27" t="s">
+      <c r="H17" s="16"/>
+      <c r="I17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27" t="s">
+      <c r="L17" s="24"/>
+      <c r="M17" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
+      <c r="A18" s="34">
         <v>22</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="18">
         <v>23</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="18">
         <v>24</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="36">
         <v>25</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="18">
         <v>26</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="18">
         <v>27</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="18">
         <v>28</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="27" t="s">
+      <c r="H18" s="16"/>
+      <c r="I18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
+      <c r="L18" s="24"/>
+      <c r="M18" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="37">
+      <c r="A19" s="34">
         <v>29</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="18">
         <v>30</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="27" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
+      <c r="L19" s="24"/>
+      <c r="M19" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="27" t="s">
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="K20" s="35" t="s">
+      <c r="K20" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
+      <c r="L20" s="24"/>
+      <c r="M20" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="21">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18">
+        <v>1</v>
+      </c>
+      <c r="D21" s="18">
         <v>2</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="18">
         <v>3</v>
       </c>
-      <c r="F21" s="21">
-        <v>4</v>
-      </c>
-      <c r="G21" s="21">
+      <c r="F21" s="18">
+        <v>4</v>
+      </c>
+      <c r="G21" s="18">
         <v>5</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="27" t="s">
+      <c r="H21" s="16"/>
+      <c r="I21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
+      <c r="L21" s="24"/>
+      <c r="M21" s="24" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3689,36 +4805,36 @@
       <c r="A22">
         <v>6</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="18">
         <v>7</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="18">
         <v>8</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="18">
         <v>9</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="18">
         <v>10</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="18">
         <v>11</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="18">
         <v>12</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="27" t="s">
+      <c r="H22" s="16"/>
+      <c r="I22" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="K22" s="35" t="s">
+      <c r="K22" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
+      <c r="L22" s="24"/>
+      <c r="M22" s="24" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3726,35 +4842,35 @@
       <c r="A23">
         <v>13</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="18">
         <v>14</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="18">
         <v>15</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="18">
         <v>16</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="18">
         <v>17</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="18">
         <v>18</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="18">
         <v>19</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="27" t="s">
+      <c r="H23" s="16"/>
+      <c r="I23" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="27" t="s">
+      <c r="M23" s="24" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3762,68 +4878,68 @@
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="18">
         <v>21</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="18">
         <v>22</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="18">
         <v>23</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="18">
         <v>24</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="18">
         <v>25</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="18">
         <v>26</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>27</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="18">
         <v>28</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="18">
         <v>29</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="18">
         <v>30</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="18">
         <v>31</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="41"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="38"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="41"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I27" s="41"/>
+      <c r="I27" s="38"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I28" s="41"/>
+      <c r="I28" s="38"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I29" s="41"/>
+      <c r="I29" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3841,7 +4957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALZ64"/>
   <sheetViews>
@@ -3851,35 +4967,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="4.5546875" style="19" customWidth="1"/>
-    <col min="8" max="8" width="3.44140625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="3.88671875" style="41" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="41" customWidth="1"/>
-    <col min="11" max="11" width="3.33203125" style="41" customWidth="1"/>
-    <col min="12" max="12" width="2.33203125" style="41" customWidth="1"/>
-    <col min="13" max="13" width="58.88671875" style="41" customWidth="1"/>
-    <col min="14" max="14" width="4.44140625" style="41" customWidth="1"/>
-    <col min="15" max="15" width="6.5546875" style="41"/>
-    <col min="16" max="18" width="6.5546875" style="19"/>
-    <col min="19" max="19" width="6.5546875" style="42"/>
-    <col min="20" max="20" width="31.109375" style="42" customWidth="1"/>
-    <col min="21" max="21" width="34.109375" style="43" customWidth="1"/>
-    <col min="22" max="22" width="6.5546875" style="44"/>
-    <col min="23" max="1014" width="6.5546875" style="19"/>
+    <col min="1" max="7" width="4.5546875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="3.44140625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="3.88671875" style="38" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="38" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="38" customWidth="1"/>
+    <col min="12" max="12" width="2.33203125" style="38" customWidth="1"/>
+    <col min="13" max="13" width="58.88671875" style="38" customWidth="1"/>
+    <col min="14" max="14" width="4.44140625" style="38" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" style="38"/>
+    <col min="16" max="18" width="6.5546875" style="16"/>
+    <col min="19" max="19" width="6.5546875" style="39"/>
+    <col min="20" max="20" width="31.109375" style="39" customWidth="1"/>
+    <col min="21" max="21" width="34.109375" style="40" customWidth="1"/>
+    <col min="22" max="22" width="6.5546875" style="41"/>
+    <col min="23" max="1014" width="6.5546875" style="16"/>
     <col min="1016" max="1024" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="17"/>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
@@ -3889,51 +5005,51 @@
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="V1" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AF1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AN1" s="19" t="s">
+      <c r="AN1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="AV1" s="19" t="s">
+      <c r="AV1" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="I2"/>
@@ -3945,49 +5061,49 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="S2" s="2">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="S2" s="89">
+        <v>1</v>
+      </c>
+      <c r="T2" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="46" t="s">
+      <c r="U2" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V2" s="47">
+      <c r="V2" s="44">
         <v>2</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="X2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="AF2" s="19" t="s">
+      <c r="AF2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="AN2" s="19" t="s">
+      <c r="AN2" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AV2" s="19" t="s">
+      <c r="AV2" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18">
         <v>2</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="18">
         <v>3</v>
       </c>
-      <c r="E3" s="21">
-        <v>4</v>
-      </c>
-      <c r="F3" s="21">
+      <c r="E3" s="18">
+        <v>4</v>
+      </c>
+      <c r="F3" s="18">
         <v>5</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="18">
         <v>6</v>
       </c>
       <c r="I3"/>
@@ -3996,12 +5112,12 @@
       <c r="L3"/>
       <c r="M3"/>
       <c r="Q3"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="46" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V3" s="47">
+      <c r="V3" s="44">
         <v>6</v>
       </c>
       <c r="X3"/>
@@ -4013,25 +5129,25 @@
       <c r="AD3"/>
     </row>
     <row r="4" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>7</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="18">
         <v>8</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="18">
         <v>9</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="45">
         <v>10</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <v>11</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="18">
         <v>12</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="18">
         <v>13</v>
       </c>
       <c r="I4"/>
@@ -4039,20 +5155,20 @@
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
-      <c r="N4" s="41">
+      <c r="N4" s="38">
         <f>32*2</f>
         <v>64</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="O4" s="38" t="s">
         <v>90</v>
       </c>
       <c r="Q4"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="46" t="s">
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V4" s="47">
+      <c r="V4" s="44">
         <v>1</v>
       </c>
       <c r="X4"/>
@@ -4064,58 +5180,58 @@
       <c r="AD4"/>
     </row>
     <row r="5" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>14</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="18">
         <v>15</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="18">
         <v>16</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <v>17</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <v>18</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="18">
         <v>19</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="18">
         <v>20</v>
       </c>
-      <c r="I5" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="49" t="s">
+      <c r="I5" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="46" t="s">
         <v>52</v>
       </c>
       <c r="L5"/>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="41">
+      <c r="N5" s="38">
         <f>23*4</f>
         <v>92</v>
       </c>
-      <c r="O5" s="41" t="s">
+      <c r="O5" s="38" t="s">
         <v>94</v>
       </c>
       <c r="Q5"/>
-      <c r="S5" s="2">
+      <c r="S5" s="89">
         <v>2</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="46" t="s">
+      <c r="U5" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V5" s="47">
+      <c r="V5" s="44">
         <v>1</v>
       </c>
       <c r="X5"/>
@@ -4127,48 +5243,48 @@
       <c r="AD5"/>
     </row>
     <row r="6" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50">
+      <c r="A6" s="47">
         <v>21</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="47">
         <v>22</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="47">
         <v>23</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="47">
         <v>24</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="47">
         <v>25</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="47">
         <v>26</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="47">
         <v>27</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27" t="s">
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="46" t="s">
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V6" s="47">
+      <c r="V6" s="44">
         <v>3</v>
       </c>
       <c r="X6"/>
@@ -4178,40 +5294,40 @@
       <c r="AB6"/>
     </row>
     <row r="7" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50">
+      <c r="A7" s="47">
         <v>28</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="47">
         <v>29</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="47">
         <v>30</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="I7" s="51" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="I7" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27" t="s">
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="46" t="s">
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V7" s="47">
+      <c r="V7" s="44">
         <v>1</v>
       </c>
       <c r="X7"/>
@@ -4221,34 +5337,34 @@
       <c r="AB7"/>
     </row>
     <row r="8" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24" t="s">
         <v>18</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
-      <c r="S8" s="2">
+      <c r="S8" s="89">
         <v>3</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="U8" s="46" t="s">
+      <c r="U8" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V8" s="47">
+      <c r="V8" s="44">
         <v>1</v>
       </c>
       <c r="X8"/>
@@ -4258,910 +5374,910 @@
       <c r="AB8"/>
     </row>
     <row r="9" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="31" t="s">
+      <c r="I9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27" t="s">
+      <c r="L9" s="24"/>
+      <c r="M9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="23"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="46" t="s">
+      <c r="N9" s="20"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V9" s="47">
+      <c r="V9" s="44">
         <v>3</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="X9" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="88"/>
+      <c r="AD9" s="88"/>
     </row>
     <row r="10" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50">
-        <v>1</v>
-      </c>
-      <c r="E10" s="50">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47">
+        <v>1</v>
+      </c>
+      <c r="E10" s="47">
         <v>2</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="47">
         <v>3</v>
       </c>
-      <c r="G10" s="50">
-        <v>4</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="31" t="s">
+      <c r="G10" s="47">
+        <v>4</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="46" t="s">
+      <c r="N10" s="20"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V10" s="47">
-        <v>1</v>
-      </c>
-      <c r="X10" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="21" t="s">
+      <c r="V10" s="44">
+        <v>1</v>
+      </c>
+      <c r="X10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="21" t="s">
+      <c r="Z10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AA10" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB10" s="21" t="s">
+      <c r="AA10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AC10" s="21" t="s">
+      <c r="AC10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AD10" s="21" t="s">
+      <c r="AD10" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50">
+      <c r="A11" s="47">
         <v>5</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="47">
         <v>6</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="47">
         <v>7</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="47">
         <v>8</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="47">
         <v>9</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="47">
         <v>10</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="47">
         <v>11</v>
       </c>
-      <c r="I11" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="53" t="s">
+      <c r="I11" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="K11" s="53" t="s">
+      <c r="K11" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27" t="s">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="S11" s="2">
-        <v>4</v>
-      </c>
-      <c r="T11" s="2" t="s">
+      <c r="N11" s="20"/>
+      <c r="S11" s="89">
+        <v>4</v>
+      </c>
+      <c r="T11" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="U11" s="46" t="s">
+      <c r="U11" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V11" s="47">
-        <v>1</v>
-      </c>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="21">
+      <c r="V11" s="44">
+        <v>1</v>
+      </c>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="18">
         <v>2</v>
       </c>
-      <c r="AA11" s="21">
+      <c r="AA11" s="18">
         <v>3</v>
       </c>
-      <c r="AB11" s="21">
-        <v>4</v>
-      </c>
-      <c r="AC11" s="21">
+      <c r="AB11" s="18">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="18">
         <v>5</v>
       </c>
-      <c r="AD11" s="21">
+      <c r="AD11" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>12</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="18">
         <v>13</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>14</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="51">
         <v>15</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="18">
         <v>16</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="18">
         <v>17</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="18">
         <v>18</v>
       </c>
-      <c r="I12" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="31" t="s">
+      <c r="I12" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27" t="s">
+      <c r="L12" s="24"/>
+      <c r="M12" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="41" t="s">
+      <c r="O12" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="46" t="s">
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V12" s="47">
+      <c r="V12" s="44">
         <v>3</v>
       </c>
-      <c r="X12" s="21">
+      <c r="X12" s="18">
         <v>7</v>
       </c>
-      <c r="Y12" s="21">
+      <c r="Y12" s="18">
         <v>8</v>
       </c>
-      <c r="Z12" s="21">
+      <c r="Z12" s="18">
         <v>9</v>
       </c>
-      <c r="AA12" s="52">
+      <c r="AA12" s="49">
         <v>10</v>
       </c>
-      <c r="AB12" s="21">
+      <c r="AB12" s="18">
         <v>11</v>
       </c>
-      <c r="AC12" s="21">
+      <c r="AC12" s="18">
         <v>12</v>
       </c>
-      <c r="AD12" s="21">
+      <c r="AD12" s="18">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54">
+      <c r="A13" s="51">
         <v>19</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="18">
         <v>20</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>21</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="52">
         <v>22</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <v>23</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="18">
         <v>24</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="18">
         <v>25</v>
       </c>
-      <c r="I13" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="31" t="s">
+      <c r="I13" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27" t="s">
+      <c r="L13" s="24"/>
+      <c r="M13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="23"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="46" t="s">
+      <c r="N13" s="20"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V13" s="47">
-        <v>1</v>
-      </c>
-      <c r="X13" s="21">
+      <c r="V13" s="44">
+        <v>1</v>
+      </c>
+      <c r="X13" s="18">
         <v>14</v>
       </c>
-      <c r="Y13" s="21">
+      <c r="Y13" s="18">
         <v>15</v>
       </c>
-      <c r="Z13" s="21">
+      <c r="Z13" s="18">
         <v>16</v>
       </c>
-      <c r="AA13" s="21">
+      <c r="AA13" s="18">
         <v>17</v>
       </c>
-      <c r="AB13" s="21">
+      <c r="AB13" s="18">
         <v>18</v>
       </c>
-      <c r="AC13" s="21">
+      <c r="AC13" s="18">
         <v>19</v>
       </c>
-      <c r="AD13" s="21">
+      <c r="AD13" s="18">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="51">
         <v>26</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="18">
         <v>27</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>28</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="51">
         <v>29</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="18">
         <v>30</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="18">
         <v>31</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="I14" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="53" t="s">
+      <c r="G14" s="18"/>
+      <c r="I14" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="K14" s="53" t="s">
+      <c r="K14" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27" t="s">
+      <c r="L14" s="24"/>
+      <c r="M14" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="23"/>
-      <c r="S14" s="2">
+      <c r="N14" s="20"/>
+      <c r="S14" s="89">
         <v>5</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="T14" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="U14" s="46" t="s">
+      <c r="U14" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V14" s="47">
-        <v>1</v>
-      </c>
-      <c r="X14" s="21">
+      <c r="V14" s="44">
+        <v>1</v>
+      </c>
+      <c r="X14" s="18">
         <v>21</v>
       </c>
-      <c r="Y14" s="21">
+      <c r="Y14" s="18">
         <v>22</v>
       </c>
-      <c r="Z14" s="21">
+      <c r="Z14" s="18">
         <v>23</v>
       </c>
-      <c r="AA14" s="56">
+      <c r="AA14" s="53">
         <v>24</v>
       </c>
-      <c r="AB14" s="21">
+      <c r="AB14" s="18">
         <v>25</v>
       </c>
-      <c r="AC14" s="21">
+      <c r="AC14" s="18">
         <v>26</v>
       </c>
-      <c r="AD14" s="21">
+      <c r="AD14" s="18">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="I15" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="53" t="s">
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="I15" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="53" t="s">
+      <c r="K15" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27" t="s">
+      <c r="L15" s="24"/>
+      <c r="M15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="46" t="s">
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V15" s="47">
+      <c r="V15" s="44">
         <v>3</v>
       </c>
-      <c r="X15" s="57">
+      <c r="X15" s="54">
         <v>28</v>
       </c>
-      <c r="Y15" s="21">
+      <c r="Y15" s="18">
         <v>29</v>
       </c>
-      <c r="Z15" s="21">
+      <c r="Z15" s="18">
         <v>30</v>
       </c>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
     </row>
     <row r="16" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="53" t="s">
+      <c r="I16" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="53" t="s">
+      <c r="K16" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27" t="s">
+      <c r="L16" s="24"/>
+      <c r="M16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="46" t="s">
+      <c r="N16" s="20"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V16" s="47">
-        <v>1</v>
-      </c>
-      <c r="X16" s="3" t="s">
+      <c r="V16" s="44">
+        <v>1</v>
+      </c>
+      <c r="X16" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
+      <c r="Y16" s="88"/>
+      <c r="Z16" s="88"/>
+      <c r="AA16" s="88"/>
+      <c r="AB16" s="88"/>
+      <c r="AC16" s="88"/>
+      <c r="AD16" s="88"/>
     </row>
     <row r="17" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21">
-        <v>1</v>
-      </c>
-      <c r="I17" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="53" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27" t="s">
+      <c r="L17" s="24"/>
+      <c r="M17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="23" t="s">
+      <c r="N17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="41" t="s">
+      <c r="O17" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="89">
         <v>6</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="T17" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="U17" s="46" t="s">
+      <c r="U17" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V17" s="47">
-        <v>1</v>
-      </c>
-      <c r="X17" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="21" t="s">
+      <c r="V17" s="44">
+        <v>1</v>
+      </c>
+      <c r="X17" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Z17" s="21" t="s">
+      <c r="Z17" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AA17" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB17" s="21" t="s">
+      <c r="AA17" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AC17" s="21" t="s">
+      <c r="AC17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="21" t="s">
+      <c r="AD17" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55">
+      <c r="A18" s="52">
         <v>2</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="18">
         <v>3</v>
       </c>
-      <c r="C18" s="21">
-        <v>4</v>
-      </c>
-      <c r="D18" s="55">
+      <c r="C18" s="18">
+        <v>4</v>
+      </c>
+      <c r="D18" s="52">
         <v>5</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="18">
         <v>6</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="18">
         <v>7</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="18">
         <v>8</v>
       </c>
-      <c r="I18" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="31" t="s">
+      <c r="I18" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
+      <c r="L18" s="24"/>
+      <c r="M18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="23" t="s">
+      <c r="N18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="O18" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="46" t="s">
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V18" s="47">
+      <c r="V18" s="44">
         <v>3</v>
       </c>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="21">
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="18">
         <v>2</v>
       </c>
-      <c r="AC18" s="21">
+      <c r="AC18" s="18">
         <v>3</v>
       </c>
-      <c r="AD18" s="21">
+      <c r="AD18" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>9</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="18">
         <v>10</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="18">
         <v>11</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="52">
         <v>12</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="18">
         <v>13</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="18">
         <v>14</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="18">
         <v>15</v>
       </c>
-      <c r="I19" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="53" t="s">
+      <c r="I19" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="K19" s="53" t="s">
+      <c r="K19" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
+      <c r="L19" s="24"/>
+      <c r="M19" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="46" t="s">
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V19" s="47">
-        <v>1</v>
-      </c>
-      <c r="X19" s="21">
+      <c r="V19" s="44">
+        <v>1</v>
+      </c>
+      <c r="X19" s="18">
         <v>5</v>
       </c>
-      <c r="Y19" s="21">
+      <c r="Y19" s="18">
         <v>6</v>
       </c>
-      <c r="Z19" s="21">
+      <c r="Z19" s="18">
         <v>7</v>
       </c>
-      <c r="AA19" s="21">
+      <c r="AA19" s="18">
         <v>8</v>
       </c>
-      <c r="AB19" s="21">
+      <c r="AB19" s="18">
         <v>9</v>
       </c>
-      <c r="AC19" s="21">
+      <c r="AC19" s="18">
         <v>10</v>
       </c>
-      <c r="AD19" s="21">
+      <c r="AD19" s="18">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
+      <c r="A20" s="51">
         <v>16</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="18">
         <v>17</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="18">
         <v>18</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="52">
         <v>19</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="18">
         <v>20</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="18">
         <v>21</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="18">
         <v>22</v>
       </c>
-      <c r="I20" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="31" t="s">
+      <c r="I20" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
+      <c r="L20" s="24"/>
+      <c r="M20" s="24" t="s">
         <v>45</v>
       </c>
       <c r="P20"/>
-      <c r="S20" s="2">
+      <c r="S20" s="89">
         <v>7</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="U20" s="46" t="s">
+      <c r="U20" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V20" s="47">
-        <v>1</v>
-      </c>
-      <c r="X20" s="21">
+      <c r="V20" s="44">
+        <v>1</v>
+      </c>
+      <c r="X20" s="18">
         <v>12</v>
       </c>
-      <c r="Y20" s="21">
+      <c r="Y20" s="18">
         <v>13</v>
       </c>
-      <c r="Z20" s="21">
+      <c r="Z20" s="18">
         <v>14</v>
       </c>
-      <c r="AA20" s="55">
+      <c r="AA20" s="52">
         <v>15</v>
       </c>
-      <c r="AB20" s="21">
+      <c r="AB20" s="18">
         <v>16</v>
       </c>
-      <c r="AC20" s="21">
+      <c r="AC20" s="18">
         <v>17</v>
       </c>
-      <c r="AD20" s="21">
+      <c r="AD20" s="18">
         <v>18</v>
       </c>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="27" t="s">
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="24" t="s">
         <v>118</v>
       </c>
       <c r="AH20"/>
     </row>
     <row r="21" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54">
+      <c r="A21" s="51">
         <v>23</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="18">
         <v>24</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="18">
         <v>25</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="52">
         <v>26</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="18">
         <v>27</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="18">
         <v>28</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="18">
         <v>29</v>
       </c>
-      <c r="I21" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="53" t="s">
+      <c r="I21" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="53" t="s">
+      <c r="K21" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
+      <c r="L21" s="24"/>
+      <c r="M21" s="24" t="s">
         <v>48</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="46" t="s">
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V21" s="47">
+      <c r="V21" s="44">
         <v>3</v>
       </c>
-      <c r="X21" s="55">
+      <c r="X21" s="52">
         <v>19</v>
       </c>
-      <c r="Y21" s="21">
+      <c r="Y21" s="18">
         <v>20</v>
       </c>
-      <c r="Z21" s="21">
+      <c r="Z21" s="18">
         <v>21</v>
       </c>
-      <c r="AA21" s="55">
+      <c r="AA21" s="52">
         <v>22</v>
       </c>
-      <c r="AB21" s="21">
+      <c r="AB21" s="18">
         <v>23</v>
       </c>
-      <c r="AC21" s="21">
+      <c r="AC21" s="18">
         <v>24</v>
       </c>
-      <c r="AD21" s="21">
+      <c r="AD21" s="18">
         <v>25</v>
       </c>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="41" t="s">
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="38" t="s">
         <v>120</v>
       </c>
       <c r="AH21"/>
     </row>
     <row r="22" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="60">
+      <c r="A22" s="57">
         <v>30</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="I22" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="31" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="I22" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="K22" s="31" t="s">
+      <c r="K22" s="28" t="s">
         <v>12</v>
       </c>
       <c r="L22"/>
-      <c r="M22" s="27" t="s">
+      <c r="M22" s="24" t="s">
         <v>50</v>
       </c>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="46" t="s">
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V22" s="47">
-        <v>1</v>
-      </c>
-      <c r="X22" s="55">
+      <c r="V22" s="44">
+        <v>1</v>
+      </c>
+      <c r="X22" s="52">
         <v>26</v>
       </c>
-      <c r="Y22" s="21">
+      <c r="Y22" s="18">
         <v>27</v>
       </c>
-      <c r="Z22" s="21">
+      <c r="Z22" s="18">
         <v>28</v>
       </c>
-      <c r="AA22" s="55">
+      <c r="AA22" s="52">
         <v>29</v>
       </c>
-      <c r="AB22" s="21">
+      <c r="AB22" s="18">
         <v>30</v>
       </c>
-      <c r="AC22" s="21">
+      <c r="AC22" s="18">
         <v>31</v>
       </c>
-      <c r="AD22" s="21"/>
-      <c r="AF22" s="61"/>
-      <c r="AG22" s="41" t="s">
+      <c r="AD22" s="18"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="38" t="s">
         <v>122</v>
       </c>
       <c r="AH22"/>
     </row>
     <row r="23" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="I23" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="62" t="s">
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="I23" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="K23" s="62" t="s">
+      <c r="K23" s="59" t="s">
         <v>52</v>
       </c>
       <c r="M23" t="s">
@@ -5169,356 +6285,356 @@
       </c>
       <c r="N23"/>
       <c r="O23"/>
-      <c r="S23" s="2">
+      <c r="S23" s="89">
         <v>8</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="U23" s="46" t="s">
+      <c r="U23" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V23" s="47">
-        <v>1</v>
-      </c>
-      <c r="X23" s="3" t="s">
+      <c r="V23" s="44">
+        <v>1</v>
+      </c>
+      <c r="X23" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
+      <c r="Y23" s="88"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="88"/>
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="88"/>
+      <c r="AD23" s="88"/>
     </row>
     <row r="24" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="21" t="s">
+      <c r="A24" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="21" t="s">
+      <c r="D24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="16" t="s">
         <v>7</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="46" t="s">
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V24" s="47">
+      <c r="V24" s="44">
         <v>3</v>
       </c>
-      <c r="X24" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="21" t="s">
+      <c r="X24" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Z24" s="21" t="s">
+      <c r="Z24" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AA24" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB24" s="21" t="s">
+      <c r="AA24" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB24" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AC24" s="21" t="s">
+      <c r="AC24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AD24" s="21" t="s">
+      <c r="AD24" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21">
-        <v>1</v>
-      </c>
-      <c r="C25" s="21">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18">
         <v>2</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="18">
         <v>3</v>
       </c>
-      <c r="E25" s="21">
-        <v>4</v>
-      </c>
-      <c r="F25" s="21">
+      <c r="E25" s="18">
+        <v>4</v>
+      </c>
+      <c r="F25" s="18">
         <v>5</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="18">
         <v>6</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
-      <c r="N25" s="41">
+      <c r="N25" s="38">
         <f>18*4</f>
         <v>72</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="46" t="s">
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V25" s="47">
-        <v>1</v>
-      </c>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21">
+      <c r="V25" s="44">
+        <v>1</v>
+      </c>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57">
+      <c r="A26" s="54">
         <v>7</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="18">
         <v>8</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="18">
         <v>9</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="18">
         <v>10</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="18">
         <v>11</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="18">
         <v>12</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="18">
         <v>13</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-      <c r="S26" s="2">
+      <c r="S26" s="89">
         <v>9</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="U26" s="46" t="s">
+      <c r="U26" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V26" s="47">
-        <v>1</v>
-      </c>
-      <c r="X26" s="55">
+      <c r="V26" s="44">
+        <v>1</v>
+      </c>
+      <c r="X26" s="52">
         <v>2</v>
       </c>
-      <c r="Y26" s="21">
+      <c r="Y26" s="18">
         <v>3</v>
       </c>
-      <c r="Z26" s="21">
-        <v>4</v>
-      </c>
-      <c r="AA26" s="55">
+      <c r="Z26" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="52">
         <v>5</v>
       </c>
-      <c r="AB26" s="21">
+      <c r="AB26" s="18">
         <v>6</v>
       </c>
-      <c r="AC26" s="21">
+      <c r="AC26" s="18">
         <v>7</v>
       </c>
-      <c r="AD26" s="21">
+      <c r="AD26" s="18">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
+      <c r="A27" s="18">
         <v>14</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="18">
         <v>15</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="18">
         <v>16</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="18">
         <v>17</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="18">
         <v>18</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="18">
         <v>19</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="18">
         <v>20</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="46" t="s">
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V27" s="47">
+      <c r="V27" s="44">
         <v>3</v>
       </c>
-      <c r="X27" s="55">
+      <c r="X27" s="52">
         <v>9</v>
       </c>
-      <c r="Y27" s="21">
+      <c r="Y27" s="18">
         <v>10</v>
       </c>
-      <c r="Z27" s="21">
+      <c r="Z27" s="18">
         <v>11</v>
       </c>
-      <c r="AA27" s="55">
+      <c r="AA27" s="52">
         <v>12</v>
       </c>
-      <c r="AB27" s="21">
+      <c r="AB27" s="18">
         <v>13</v>
       </c>
-      <c r="AC27" s="21">
+      <c r="AC27" s="18">
         <v>14</v>
       </c>
-      <c r="AD27" s="21">
+      <c r="AD27" s="18">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
+      <c r="A28" s="18">
         <v>21</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="18">
         <v>22</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="18">
         <v>23</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="18">
         <v>24</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="18">
         <v>25</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="18">
         <v>26</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="18">
         <v>27</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="46" t="s">
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V28" s="47">
-        <v>1</v>
-      </c>
-      <c r="X28" s="55">
+      <c r="V28" s="44">
+        <v>1</v>
+      </c>
+      <c r="X28" s="52">
         <v>16</v>
       </c>
-      <c r="Y28" s="21">
+      <c r="Y28" s="18">
         <v>17</v>
       </c>
-      <c r="Z28" s="21">
+      <c r="Z28" s="18">
         <v>18</v>
       </c>
-      <c r="AA28" s="55">
+      <c r="AA28" s="52">
         <v>19</v>
       </c>
-      <c r="AB28" s="21">
+      <c r="AB28" s="18">
         <v>20</v>
       </c>
-      <c r="AC28" s="21">
+      <c r="AC28" s="18">
         <v>21</v>
       </c>
-      <c r="AD28" s="21">
+      <c r="AD28" s="18">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
+      <c r="A29" s="18">
         <v>28</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="18">
         <v>29</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="18">
         <v>30</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="18">
         <v>31</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19" t="s">
+      <c r="N29" s="16"/>
+      <c r="O29" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="P29" s="41"/>
-      <c r="S29" s="2">
+      <c r="P29" s="38"/>
+      <c r="S29" s="89">
         <v>10</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="T29" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="U29" s="46" t="s">
+      <c r="U29" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V29" s="47">
-        <v>1</v>
-      </c>
-      <c r="X29" s="55">
+      <c r="V29" s="44">
+        <v>1</v>
+      </c>
+      <c r="X29" s="52">
         <v>23</v>
       </c>
-      <c r="Y29" s="21">
+      <c r="Y29" s="18">
         <v>24</v>
       </c>
-      <c r="Z29" s="21">
+      <c r="Z29" s="18">
         <v>25</v>
       </c>
-      <c r="AA29" s="55">
+      <c r="AA29" s="52">
         <v>26</v>
       </c>
-      <c r="AB29" s="21">
+      <c r="AB29" s="18">
         <v>27</v>
       </c>
-      <c r="AC29" s="21">
+      <c r="AC29" s="18">
         <v>28</v>
       </c>
-      <c r="AD29" s="21">
+      <c r="AD29" s="18">
         <v>29</v>
       </c>
     </row>
@@ -5527,104 +6643,104 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="O30" s="19">
+      <c r="O30" s="16">
         <v>6</v>
       </c>
-      <c r="P30" s="41"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="46" t="s">
+      <c r="P30" s="38"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V30" s="47">
+      <c r="V30" s="44">
         <v>3</v>
       </c>
-      <c r="X30" s="63">
+      <c r="X30" s="60">
         <v>30</v>
       </c>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="21"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
     </row>
     <row r="31" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
-      <c r="N31" s="19" t="s">
+      <c r="N31" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="O31" s="19">
+      <c r="O31" s="16">
         <v>22</v>
       </c>
-      <c r="P31" s="41"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="46" t="s">
+      <c r="P31" s="38"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V31" s="47">
-        <v>1</v>
-      </c>
-      <c r="X31" s="3" t="s">
+      <c r="V31" s="44">
+        <v>1</v>
+      </c>
+      <c r="X31" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
+      <c r="Y31" s="88"/>
+      <c r="Z31" s="88"/>
+      <c r="AA31" s="88"/>
+      <c r="AB31" s="88"/>
+      <c r="AC31" s="88"/>
+      <c r="AD31" s="88"/>
     </row>
     <row r="32" spans="1:34" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
-      <c r="N32" s="19" t="s">
+      <c r="N32" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="O32" s="19">
+      <c r="O32" s="16">
         <v>32</v>
       </c>
-      <c r="P32" s="41"/>
-      <c r="S32" s="2">
+      <c r="P32" s="38"/>
+      <c r="S32" s="89">
         <v>11</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="T32" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="U32" s="46" t="s">
+      <c r="U32" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V32" s="47">
-        <v>1</v>
-      </c>
-      <c r="X32" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="21" t="s">
+      <c r="V32" s="44">
+        <v>1</v>
+      </c>
+      <c r="X32" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Z32" s="21" t="s">
+      <c r="Z32" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AA32" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB32" s="21" t="s">
+      <c r="AA32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB32" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AC32" s="21" t="s">
+      <c r="AC32" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AD32" s="21" t="s">
+      <c r="AD32" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5633,39 +6749,39 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
-      <c r="N33" s="19" t="s">
+      <c r="N33" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="O33" s="19">
+      <c r="O33" s="16">
         <v>2</v>
       </c>
-      <c r="P33" s="41"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="46" t="s">
+      <c r="P33" s="38"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V33" s="47">
+      <c r="V33" s="44">
         <v>3</v>
       </c>
       <c r="W33"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="21">
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="18">
         <v>2</v>
       </c>
-      <c r="AA33" s="21">
+      <c r="AA33" s="18">
         <v>3</v>
       </c>
-      <c r="AB33" s="21">
-        <v>4</v>
-      </c>
-      <c r="AC33" s="21">
+      <c r="AB33" s="18">
+        <v>4</v>
+      </c>
+      <c r="AC33" s="18">
         <v>5</v>
       </c>
-      <c r="AD33" s="21">
+      <c r="AD33" s="18">
         <v>6</v>
       </c>
     </row>
@@ -5674,41 +6790,41 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
-      <c r="N34" s="19" t="s">
+      <c r="N34" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="O34" s="19">
-        <v>4</v>
-      </c>
-      <c r="P34" s="41"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="46" t="s">
+      <c r="O34" s="16">
+        <v>4</v>
+      </c>
+      <c r="P34" s="38"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V34" s="47">
+      <c r="V34" s="44">
         <v>1</v>
       </c>
       <c r="W34"/>
-      <c r="X34" s="64">
+      <c r="X34" s="61">
         <v>7</v>
       </c>
-      <c r="Y34" s="21">
+      <c r="Y34" s="18">
         <v>8</v>
       </c>
-      <c r="Z34" s="21">
+      <c r="Z34" s="18">
         <v>9</v>
       </c>
-      <c r="AA34" s="21">
+      <c r="AA34" s="18">
         <v>10</v>
       </c>
-      <c r="AB34" s="21">
+      <c r="AB34" s="18">
         <v>11</v>
       </c>
-      <c r="AC34" s="21">
+      <c r="AC34" s="18">
         <v>12</v>
       </c>
-      <c r="AD34" s="21">
+      <c r="AD34" s="18">
         <v>13</v>
       </c>
     </row>
@@ -5716,159 +6832,159 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19">
+      <c r="N35" s="16"/>
+      <c r="O35" s="16">
         <f>SUM(O30:O34)</f>
         <v>66</v>
       </c>
-      <c r="P35" s="41" t="s">
+      <c r="P35" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35" s="89">
         <v>12</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="T35" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="U35" s="46" t="s">
+      <c r="U35" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V35" s="47">
+      <c r="V35" s="44">
         <v>1</v>
       </c>
       <c r="W35"/>
-      <c r="X35" s="21">
+      <c r="X35" s="18">
         <v>14</v>
       </c>
-      <c r="Y35" s="21">
+      <c r="Y35" s="18">
         <v>15</v>
       </c>
-      <c r="Z35" s="21">
+      <c r="Z35" s="18">
         <v>16</v>
       </c>
-      <c r="AA35" s="21">
+      <c r="AA35" s="18">
         <v>17</v>
       </c>
-      <c r="AB35" s="21">
+      <c r="AB35" s="18">
         <v>18</v>
       </c>
-      <c r="AC35" s="21">
+      <c r="AC35" s="18">
         <v>19</v>
       </c>
-      <c r="AD35" s="21">
+      <c r="AD35" s="18">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="N36" s="19"/>
+      <c r="N36" s="16"/>
       <c r="O36"/>
       <c r="P36"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="46" t="s">
+      <c r="S36" s="89"/>
+      <c r="T36" s="89"/>
+      <c r="U36" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V36" s="47">
+      <c r="V36" s="44">
         <v>3</v>
       </c>
       <c r="W36"/>
-      <c r="X36" s="21">
+      <c r="X36" s="18">
         <v>21</v>
       </c>
-      <c r="Y36" s="21">
+      <c r="Y36" s="18">
         <v>22</v>
       </c>
-      <c r="Z36" s="21">
+      <c r="Z36" s="18">
         <v>23</v>
       </c>
-      <c r="AA36" s="21">
+      <c r="AA36" s="18">
         <v>24</v>
       </c>
-      <c r="AB36" s="21">
+      <c r="AB36" s="18">
         <v>25</v>
       </c>
-      <c r="AC36" s="21">
+      <c r="AC36" s="18">
         <v>26</v>
       </c>
-      <c r="AD36" s="21">
+      <c r="AD36" s="18">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="N37" s="19"/>
-      <c r="O37" s="65">
+      <c r="N37" s="16"/>
+      <c r="O37" s="62">
         <f>(O35-2)/4</f>
         <v>16</v>
       </c>
-      <c r="P37" s="41" t="s">
+      <c r="P37" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="46" t="s">
+      <c r="S37" s="89"/>
+      <c r="T37" s="89"/>
+      <c r="U37" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V37" s="47">
+      <c r="V37" s="44">
         <v>1</v>
       </c>
       <c r="W37"/>
-      <c r="X37" s="21">
+      <c r="X37" s="18">
         <v>28</v>
       </c>
-      <c r="Y37" s="21">
+      <c r="Y37" s="18">
         <v>29</v>
       </c>
-      <c r="Z37" s="21">
+      <c r="Z37" s="18">
         <v>30</v>
       </c>
-      <c r="AA37" s="21">
+      <c r="AA37" s="18">
         <v>31</v>
       </c>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
     </row>
     <row r="38" spans="10:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N38" s="19"/>
-      <c r="O38" s="19">
-        <v>1</v>
-      </c>
-      <c r="P38" s="41" t="s">
+      <c r="N38" s="16"/>
+      <c r="O38" s="16">
+        <v>1</v>
+      </c>
+      <c r="P38" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38" s="89">
         <v>13</v>
       </c>
-      <c r="T38" s="1" t="s">
+      <c r="T38" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="U38" s="46" t="s">
+      <c r="U38" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V38" s="47">
+      <c r="V38" s="44">
         <v>1</v>
       </c>
       <c r="W38"/>
     </row>
     <row r="39" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="46" t="s">
+      <c r="S39" s="89"/>
+      <c r="T39" s="89"/>
+      <c r="U39" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V39" s="47">
+      <c r="V39" s="44">
         <v>3</v>
       </c>
       <c r="W39"/>
       <c r="X39"/>
     </row>
     <row r="40" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="46" t="s">
+      <c r="S40" s="89"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V40" s="47">
+      <c r="V40" s="44">
         <v>1</v>
       </c>
       <c r="W40"/>
@@ -5881,16 +6997,16 @@
       <c r="AD40"/>
     </row>
     <row r="41" spans="10:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S41" s="2">
+      <c r="S41" s="89">
         <v>14</v>
       </c>
-      <c r="T41" s="1" t="s">
+      <c r="T41" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="U41" s="46" t="s">
+      <c r="U41" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V41" s="47">
+      <c r="V41" s="44">
         <v>1</v>
       </c>
       <c r="W41"/>
@@ -5903,12 +7019,12 @@
       <c r="AD41"/>
     </row>
     <row r="42" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="46" t="s">
+      <c r="S42" s="89"/>
+      <c r="T42" s="89"/>
+      <c r="U42" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V42" s="47">
+      <c r="V42" s="44">
         <v>3</v>
       </c>
       <c r="W42"/>
@@ -5921,242 +7037,276 @@
       <c r="AD42"/>
     </row>
     <row r="43" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="46" t="s">
+      <c r="S43" s="89"/>
+      <c r="T43" s="89"/>
+      <c r="U43" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V43" s="47">
+      <c r="V43" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="10:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S44" s="2">
+      <c r="S44" s="89">
         <v>15</v>
       </c>
-      <c r="T44" s="1" t="s">
+      <c r="T44" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="U44" s="46" t="s">
+      <c r="U44" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V44" s="47">
+      <c r="V44" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="46" t="s">
+      <c r="S45" s="89"/>
+      <c r="T45" s="89"/>
+      <c r="U45" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V45" s="47">
+      <c r="V45" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="46" t="s">
+      <c r="S46" s="89"/>
+      <c r="T46" s="89"/>
+      <c r="U46" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V46" s="47">
+      <c r="V46" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="10:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S47" s="2">
+      <c r="S47" s="89">
         <v>16</v>
       </c>
-      <c r="T47" s="1" t="s">
+      <c r="T47" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="U47" s="46" t="s">
+      <c r="U47" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V47" s="47">
+      <c r="V47" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="46" t="s">
+      <c r="S48" s="89"/>
+      <c r="T48" s="89"/>
+      <c r="U48" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V48" s="47">
+      <c r="V48" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="46" t="s">
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V49" s="47">
+      <c r="V49" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="13:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M50" s="27"/>
-      <c r="S50" s="2">
+      <c r="M50" s="24"/>
+      <c r="S50" s="89">
         <v>17</v>
       </c>
-      <c r="T50" s="1" t="s">
+      <c r="T50" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="U50" s="46" t="s">
+      <c r="U50" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V50" s="47">
+      <c r="V50" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="M51" s="27"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="46" t="s">
+      <c r="M51" s="24"/>
+      <c r="S51" s="89"/>
+      <c r="T51" s="90"/>
+      <c r="U51" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V51" s="47">
+      <c r="V51" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="M52" s="27"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="46" t="s">
+      <c r="M52" s="24"/>
+      <c r="S52" s="89"/>
+      <c r="T52" s="89"/>
+      <c r="U52" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V52" s="47">
+      <c r="V52" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="13:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M53" s="27"/>
-      <c r="S53" s="2">
+      <c r="M53" s="24"/>
+      <c r="S53" s="89">
         <v>18</v>
       </c>
-      <c r="T53" s="1" t="s">
+      <c r="T53" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="U53" s="46" t="s">
+      <c r="U53" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V53" s="47">
+      <c r="V53" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="M54" s="27"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="46" t="s">
+      <c r="M54" s="24"/>
+      <c r="S54" s="89"/>
+      <c r="T54" s="89"/>
+      <c r="U54" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V54" s="47">
+      <c r="V54" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="M55" s="27"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="46" t="s">
+      <c r="M55" s="24"/>
+      <c r="S55" s="89"/>
+      <c r="T55" s="89"/>
+      <c r="U55" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V55" s="47">
+      <c r="V55" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="M56" s="27"/>
-      <c r="S56" s="45">
+      <c r="M56" s="24"/>
+      <c r="S56" s="42">
         <v>19</v>
       </c>
-      <c r="T56" s="45" t="s">
+      <c r="T56" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="U56" s="46"/>
-      <c r="V56" s="47">
+      <c r="U56" s="43"/>
+      <c r="V56" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="S57" s="45">
+      <c r="S57" s="42">
         <v>20</v>
       </c>
-      <c r="T57" s="45" t="s">
+      <c r="T57" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="U57" s="46"/>
-      <c r="V57" s="47">
+      <c r="U57" s="43"/>
+      <c r="V57" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="U58" s="66" t="s">
+      <c r="U58" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="V58" s="67">
+      <c r="V58" s="64">
         <f>SUM(V2:V57)</f>
         <v>98</v>
       </c>
     </row>
     <row r="59" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="U59" s="46" t="s">
+      <c r="U59" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="V59" s="67">
+      <c r="V59" s="64">
         <f>V2+V5+V8+V11+V14+V17+V20+V23+V26+V29+V32+V35+V38+V41+V44+V47+V50+V53</f>
         <v>19</v>
       </c>
     </row>
     <row r="60" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="U60" s="46" t="s">
+      <c r="U60" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V60" s="67">
+      <c r="V60" s="64">
         <f>V3+V6+V9+V12+V15+V18+V21+V24+V27+V30+V33+V36+V39+V42+V45+V48+V51+V54</f>
         <v>57</v>
       </c>
     </row>
     <row r="61" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="U61" s="46" t="s">
+      <c r="U61" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="V61" s="67">
+      <c r="V61" s="64">
         <f>V4+V7+V10+V13+V16+V19+V22+V25+V28+V31+V34+V37+V40+V43+V46+V49+V52+V55</f>
         <v>18</v>
       </c>
     </row>
     <row r="62" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="U62" s="66"/>
-      <c r="V62" s="67"/>
+      <c r="U62" s="63"/>
+      <c r="V62" s="64"/>
     </row>
     <row r="63" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="U63" s="43" t="s">
+      <c r="U63" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="V63" s="44">
+      <c r="V63" s="41">
         <f>V59+V60</f>
         <v>76</v>
       </c>
     </row>
     <row r="64" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="U64" s="67" t="s">
+      <c r="U64" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="V64" s="67">
+      <c r="V64" s="64">
         <f>V63/4</f>
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="T8:T10"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="S20:S22"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="S26:S28"/>
+    <mergeCell ref="T26:T28"/>
+    <mergeCell ref="S29:S31"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="X31:AD31"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T34"/>
+    <mergeCell ref="S35:S37"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="S38:S40"/>
+    <mergeCell ref="T38:T40"/>
     <mergeCell ref="S50:S52"/>
     <mergeCell ref="T50:T52"/>
     <mergeCell ref="S53:S55"/>
@@ -6167,40 +7317,6 @@
     <mergeCell ref="T44:T46"/>
     <mergeCell ref="S47:S49"/>
     <mergeCell ref="T47:T49"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="S35:S37"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="S38:S40"/>
-    <mergeCell ref="T38:T40"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="S26:S28"/>
-    <mergeCell ref="T26:T28"/>
-    <mergeCell ref="S29:S31"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="X31:AD31"/>
-    <mergeCell ref="S20:S22"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="T8:T10"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="T5:T7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -6211,7 +7327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI18"/>
   <sheetViews>
@@ -6221,934 +7337,934 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="4.5546875" style="19" customWidth="1"/>
-    <col min="16" max="16" width="6.5546875" style="19"/>
-    <col min="17" max="17" width="3.88671875" style="41" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="41" customWidth="1"/>
-    <col min="19" max="19" width="2.77734375" style="41" customWidth="1"/>
-    <col min="20" max="20" width="2.44140625" style="41" customWidth="1"/>
-    <col min="21" max="21" width="58.88671875" style="41" customWidth="1"/>
-    <col min="22" max="22" width="4.44140625" style="41" customWidth="1"/>
-    <col min="23" max="23" width="6.5546875" style="41"/>
-    <col min="24" max="1023" width="6.5546875" style="19"/>
+    <col min="1" max="15" width="4.5546875" style="16" customWidth="1"/>
+    <col min="16" max="16" width="6.5546875" style="16"/>
+    <col min="17" max="17" width="3.88671875" style="38" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="38" customWidth="1"/>
+    <col min="19" max="19" width="2.77734375" style="38" customWidth="1"/>
+    <col min="20" max="20" width="2.44140625" style="38" customWidth="1"/>
+    <col min="21" max="21" width="58.88671875" style="38" customWidth="1"/>
+    <col min="22" max="22" width="4.44140625" style="38" customWidth="1"/>
+    <col min="23" max="23" width="6.5546875" style="38"/>
+    <col min="24" max="1023" width="6.5546875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="I1" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="Q1" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="53" t="s">
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="Q1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="53">
-        <v>1</v>
-      </c>
-      <c r="U1" s="27" t="s">
+      <c r="T1" s="50">
+        <v>1</v>
+      </c>
+      <c r="U1" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="21" t="s">
+      <c r="L2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="31" t="s">
+      <c r="Q2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="31">
+      <c r="T2" s="28">
         <v>2</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="V2" s="41">
+      <c r="V2" s="38">
         <f>32*2</f>
         <v>64</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="W2" s="38" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21">
-        <v>1</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21">
-        <v>1</v>
-      </c>
-      <c r="N3" s="21">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18">
+        <v>1</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18">
+        <v>1</v>
+      </c>
+      <c r="N3" s="18">
         <v>2</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="16">
         <v>3</v>
       </c>
-      <c r="Q3" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="53" t="s">
+      <c r="Q3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="53">
+      <c r="T3" s="50">
         <v>3</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="V3" s="41">
+      <c r="V3" s="38">
         <f>23*4</f>
         <v>92</v>
       </c>
-      <c r="W3" s="41" t="s">
+      <c r="W3" s="38" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="18">
         <v>3</v>
       </c>
-      <c r="C4" s="21">
-        <v>4</v>
-      </c>
-      <c r="D4" s="21">
+      <c r="C4" s="18">
+        <v>4</v>
+      </c>
+      <c r="D4" s="18">
         <v>5</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <v>6</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="18">
         <v>7</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="18">
         <v>8</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="68">
-        <v>4</v>
-      </c>
-      <c r="J4" s="21">
+      <c r="H4" s="18"/>
+      <c r="I4" s="65">
+        <v>4</v>
+      </c>
+      <c r="J4" s="18">
         <v>5</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="18">
         <v>6</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="18">
         <v>7</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="18">
         <v>8</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="18">
         <v>9</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="18">
         <v>10</v>
       </c>
-      <c r="Q4" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="53" t="s">
+      <c r="Q4" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="S4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="53">
-        <v>4</v>
-      </c>
-      <c r="U4" s="27" t="s">
+      <c r="T4" s="50">
+        <v>4</v>
+      </c>
+      <c r="U4" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="V4" s="23" t="s">
+      <c r="V4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="41" t="s">
+      <c r="W4" s="38" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>9</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="18">
         <v>10</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="18">
         <v>11</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <v>12</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <v>13</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="66">
         <v>14</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="18">
         <v>15</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="55">
+      <c r="H5" s="18"/>
+      <c r="I5" s="52">
         <v>11</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="18">
         <v>12</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="18">
         <v>13</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="18">
         <v>14</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="18">
         <v>15</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="18">
         <v>16</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="18">
         <v>17</v>
       </c>
-      <c r="Q5" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="70" t="s">
+      <c r="Q5" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="31">
+      <c r="T5" s="28">
         <v>5</v>
       </c>
-      <c r="U5" s="27" t="s">
+      <c r="U5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="23" t="s">
+      <c r="V5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="41" t="s">
+      <c r="W5" s="38" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55">
+      <c r="A6" s="52">
         <v>16</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="18">
         <v>17</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="18">
         <v>18</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="51">
         <v>19</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="18">
         <v>20</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="66">
         <v>21</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="18">
         <v>22</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="55">
+      <c r="H6" s="18"/>
+      <c r="I6" s="52">
         <v>18</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="18">
         <v>19</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="18">
         <v>20</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="18">
         <v>21</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="18">
         <v>22</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="18">
         <v>23</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="18">
         <v>24</v>
       </c>
-      <c r="Q6" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="R6" s="31" t="s">
+      <c r="Q6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="31" t="s">
+      <c r="S6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="31">
+      <c r="T6" s="28">
         <v>6</v>
       </c>
-      <c r="U6" s="27" t="s">
+      <c r="U6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="23"/>
+      <c r="V6" s="20"/>
     </row>
     <row r="7" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>23</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="18">
         <v>24</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
         <v>25</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="52">
         <v>26</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <v>27</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="66">
         <v>28</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="18">
         <v>29</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="54">
+      <c r="H7" s="18"/>
+      <c r="I7" s="51">
         <v>25</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="18">
         <v>26</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="18">
         <v>27</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="18">
         <v>28</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="18">
         <v>29</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="18">
         <v>30</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="Q7" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" s="71" t="s">
+      <c r="O7" s="18"/>
+      <c r="Q7" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="S7" s="53" t="s">
+      <c r="S7" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="53">
+      <c r="T7" s="50">
         <v>7</v>
       </c>
-      <c r="U7" s="27" t="s">
+      <c r="U7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="23"/>
+      <c r="V7" s="20"/>
     </row>
     <row r="8" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72">
+      <c r="A8" s="69">
         <v>30</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="Q8" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="31" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="Q8" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="31" t="s">
+      <c r="S8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="31">
+      <c r="T8" s="28">
         <v>8</v>
       </c>
-      <c r="U8" s="27" t="s">
+      <c r="U8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="V8" s="23"/>
+      <c r="V8" s="20"/>
     </row>
     <row r="9" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="Q9" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="R9" s="31" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="Q9" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="31" t="s">
+      <c r="S9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="T9" s="31">
+      <c r="T9" s="28">
         <v>9</v>
       </c>
-      <c r="U9" s="27" t="s">
+      <c r="U9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="V9" s="23" t="s">
+      <c r="V9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="W9" s="41" t="s">
+      <c r="W9" s="38" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="3" t="s">
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="Q10" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="R10" s="53" t="s">
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="Q10" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="S10" s="53" t="s">
+      <c r="S10" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="53">
+      <c r="T10" s="50">
         <v>10</v>
       </c>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="V10" s="23"/>
+      <c r="V10" s="20"/>
     </row>
     <row r="11" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="21" t="s">
+      <c r="D11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="21" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="21" t="s">
+      <c r="L11" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="O11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="R11" s="53" t="s">
+      <c r="Q11" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="S11" s="53" t="s">
+      <c r="S11" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="53">
+      <c r="T11" s="50">
         <v>11</v>
       </c>
-      <c r="U11" s="27" t="s">
+      <c r="U11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="23"/>
+      <c r="V11" s="20"/>
     </row>
     <row r="12" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21">
-        <v>1</v>
-      </c>
-      <c r="C12" s="21">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18">
         <v>2</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="70">
         <v>3</v>
       </c>
-      <c r="E12" s="21">
-        <v>4</v>
-      </c>
-      <c r="F12" s="21">
+      <c r="E12" s="18">
+        <v>4</v>
+      </c>
+      <c r="F12" s="18">
         <v>5</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="18">
         <v>6</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="R12" s="53" t="s">
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="S12" s="53" t="s">
+      <c r="S12" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="T12" s="53">
+      <c r="T12" s="50">
         <v>12</v>
       </c>
-      <c r="U12" s="27" t="s">
+      <c r="U12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>7</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="18">
         <v>8</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>9</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="51">
         <v>10</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <v>11</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="18">
         <v>12</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="18">
         <v>13</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="55">
+      <c r="H13" s="18"/>
+      <c r="I13" s="52">
         <v>2</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="18">
         <v>3</v>
       </c>
-      <c r="K13" s="21">
-        <v>4</v>
-      </c>
-      <c r="L13" s="21">
+      <c r="K13" s="18">
+        <v>4</v>
+      </c>
+      <c r="L13" s="18">
         <v>5</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="18">
         <v>6</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="18">
         <v>7</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="16">
         <v>8</v>
       </c>
-      <c r="Q13" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="R13" s="53" t="s">
+      <c r="Q13" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="S13" s="53" t="s">
+      <c r="S13" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="T13" s="53">
+      <c r="T13" s="50">
         <v>13</v>
       </c>
-      <c r="U13" s="27" t="s">
+      <c r="U13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="V13" s="23"/>
+      <c r="V13" s="20"/>
     </row>
     <row r="14" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73">
+      <c r="A14" s="70">
         <v>14</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="18">
         <v>15</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>16</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="18">
         <v>17</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="18">
         <v>18</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="18">
         <v>19</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="18">
         <v>20</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="54">
+      <c r="H14" s="18"/>
+      <c r="I14" s="51">
         <v>9</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="18">
         <v>10</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="18">
         <v>11</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="18">
         <v>12</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="18">
         <v>13</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="18">
         <v>14</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="16">
         <v>15</v>
       </c>
-      <c r="Q14" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="R14" s="31" t="s">
+      <c r="Q14" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="S14" s="31" t="s">
+      <c r="S14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="T14" s="31">
+      <c r="T14" s="28">
         <v>14</v>
       </c>
-      <c r="U14" s="27" t="s">
+      <c r="U14" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="V14" s="23" t="s">
+      <c r="V14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="W14" s="41" t="s">
+      <c r="W14" s="38" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>21</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="18">
         <v>22</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>23</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="18">
         <v>24</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>25</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="18">
         <v>26</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="18">
         <v>27</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="55">
+      <c r="H15" s="18"/>
+      <c r="I15" s="52">
         <v>16</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="18">
         <v>17</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="18">
         <v>18</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="18">
         <v>19</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="18">
         <v>20</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="18">
         <v>21</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="18">
         <v>22</v>
       </c>
-      <c r="Q15" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="R15" s="53" t="s">
+      <c r="Q15" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="S15" s="53" t="s">
+      <c r="S15" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="T15" s="53">
+      <c r="T15" s="50">
         <v>15</v>
       </c>
-      <c r="U15" s="27" t="s">
+      <c r="U15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="V15" s="23" t="s">
+      <c r="V15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="W15" s="41" t="s">
+      <c r="W15" s="38" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55">
+      <c r="A16" s="52">
         <v>28</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="18">
         <v>29</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="18">
         <v>30</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="18">
         <v>31</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="54">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="51">
         <v>23</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="18">
         <v>24</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="18">
         <v>25</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="18">
         <v>26</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="18">
         <v>27</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N16" s="18">
         <v>28</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="18">
         <v>29</v>
       </c>
-      <c r="Q16" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="31" t="s">
+      <c r="Q16" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="S16" s="31" t="s">
+      <c r="S16" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="T16" s="31">
+      <c r="T16" s="28">
         <v>16</v>
       </c>
-      <c r="U16" s="27" t="s">
+      <c r="U16" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18">
         <v>30</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="18">
         <v>31</v>
       </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="Q17" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="R17" s="53" t="s">
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="Q17" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="S17" s="53" t="s">
+      <c r="S17" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="T17" s="53">
+      <c r="T17" s="50">
         <v>17</v>
       </c>
-      <c r="U17" s="27" t="s">
+      <c r="U17" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q18" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="R18" s="31" t="s">
+      <c r="Q18" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="S18" s="31" t="s">
+      <c r="S18" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="T18" s="31">
+      <c r="T18" s="28">
         <v>18</v>
       </c>
-      <c r="U18" s="27" t="s">
+      <c r="U18" s="24" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7168,7 +8284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\statistics\linmodr_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mediazal\Documents\GitHub\linmodr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10668" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10665" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Autumn" sheetId="4" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="178">
   <si>
     <t>Сентябрь</t>
   </si>
@@ -587,7 +587,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
@@ -1035,6 +1035,9 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1044,12 +1047,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1398,32 +1398,32 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="3" width="4.109375" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-    <col min="9" max="9" width="4.109375" customWidth="1"/>
-    <col min="11" max="11" width="3.109375" customWidth="1"/>
-    <col min="12" max="12" width="34.21875" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
       <c r="H1" s="17"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1432,7 +1432,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -1462,7 +1462,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>8</v>
       </c>
@@ -1546,7 +1546,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>15</v>
       </c>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="74">
         <v>22</v>
       </c>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="73">
         <v>29</v>
       </c>
@@ -1683,16 +1683,16 @@
       </c>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="16"/>
       <c r="I8" t="s">
         <v>1</v>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="71">
         <v>6</v>
       </c>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="73">
         <v>13</v>
       </c>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="73">
         <v>20</v>
       </c>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="83">
         <v>27</v>
       </c>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -1980,16 +1980,16 @@
       </c>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="16"/>
       <c r="I15" t="s">
         <v>4</v>
@@ -1997,8 +1997,8 @@
       <c r="J15" t="s">
         <v>165</v>
       </c>
-      <c r="K15" t="s">
-        <v>12</v>
+      <c r="K15" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="L15" s="24" t="s">
         <v>31</v>
@@ -2009,7 +2009,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="86">
         <v>3</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="73">
         <v>10</v>
       </c>
@@ -2126,6 +2126,9 @@
       <c r="J18" t="s">
         <v>175</v>
       </c>
+      <c r="K18" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L18" s="24" t="s">
         <v>38</v>
       </c>
@@ -2143,7 +2146,7 @@
       </c>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="73">
         <v>17</v>
       </c>
@@ -2172,6 +2175,9 @@
       <c r="J19" t="s">
         <v>166</v>
       </c>
+      <c r="K19" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L19" s="24" t="s">
         <v>41</v>
       </c>
@@ -2189,7 +2195,7 @@
       </c>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="73">
         <v>24</v>
       </c>
@@ -2218,6 +2224,9 @@
       <c r="J20" t="s">
         <v>37</v>
       </c>
+      <c r="K20" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L20" s="24" t="s">
         <v>43</v>
       </c>
@@ -2235,16 +2244,16 @@
       </c>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="88" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
       <c r="H21" s="16"/>
       <c r="I21" t="s">
         <v>4</v>
@@ -2252,6 +2261,9 @@
       <c r="J21" t="s">
         <v>167</v>
       </c>
+      <c r="K21" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="L21" s="24" t="s">
         <v>45</v>
       </c>
@@ -2269,11 +2281,11 @@
       </c>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>1</v>
       </c>
-      <c r="B22" s="91">
+      <c r="B22" s="88">
         <v>2</v>
       </c>
       <c r="C22" s="18">
@@ -2298,6 +2310,9 @@
       <c r="J22" t="s">
         <v>42</v>
       </c>
+      <c r="K22" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L22" s="24" t="s">
         <v>48</v>
       </c>
@@ -2315,7 +2330,7 @@
       </c>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>8</v>
       </c>
@@ -2351,7 +2366,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>15</v>
       </c>
@@ -2376,7 +2391,7 @@
       <c r="H24" s="16"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2401,7 +2416,7 @@
       <c r="H25" s="16"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>29</v>
       </c>
@@ -2418,55 +2433,55 @@
       <c r="J26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P43" s="2"/>
     </row>
   </sheetData>
@@ -2488,28 +2503,28 @@
       <selection sqref="A1:N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="3.5546875" customWidth="1"/>
+    <col min="1" max="7" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
       <c r="H1" s="17"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -2537,7 +2552,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -2573,7 +2588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>8</v>
       </c>
@@ -2609,7 +2624,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>15</v>
       </c>
@@ -2645,7 +2660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="74">
         <v>22</v>
       </c>
@@ -2681,7 +2696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="73">
         <v>29</v>
       </c>
@@ -2707,16 +2722,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="16"/>
       <c r="I8" s="2" t="s">
         <v>4</v>
@@ -2731,7 +2746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18">
@@ -2763,7 +2778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="71">
         <v>6</v>
       </c>
@@ -2799,7 +2814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="73">
         <v>13</v>
       </c>
@@ -2835,7 +2850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="73">
         <v>20</v>
       </c>
@@ -2871,7 +2886,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="83">
         <v>27</v>
       </c>
@@ -2903,7 +2918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -2925,23 +2940,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="16"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2967,7 +2982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="86">
         <v>3</v>
       </c>
@@ -3003,7 +3018,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="73">
         <v>10</v>
       </c>
@@ -3039,7 +3054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="73">
         <v>17</v>
       </c>
@@ -3075,7 +3090,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="73">
         <v>24</v>
       </c>
@@ -3111,16 +3126,16 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="88" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
       <c r="H21" s="16"/>
       <c r="I21" s="24" t="s">
         <v>4</v>
@@ -3135,11 +3150,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>1</v>
       </c>
-      <c r="B22" s="91">
+      <c r="B22" s="88">
         <v>2</v>
       </c>
       <c r="C22" s="18">
@@ -3171,7 +3186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>8</v>
       </c>
@@ -3199,7 +3214,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>15</v>
       </c>
@@ -3227,7 +3242,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3255,7 +3270,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>29</v>
       </c>
@@ -3293,28 +3308,28 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="4.21875" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" customWidth="1"/>
-    <col min="9" max="9" width="4.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="3.88671875" customWidth="1"/>
+    <col min="1" max="7" width="4.28515625" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
     <col min="12" max="12" width="62" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3323,7 +3338,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3353,7 +3368,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -3377,7 +3392,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -3415,7 +3430,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>12</v>
       </c>
@@ -3452,7 +3467,7 @@
       </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>19</v>
       </c>
@@ -3489,7 +3504,7 @@
       </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>26</v>
       </c>
@@ -3523,16 +3538,16 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="4"/>
       <c r="I8" s="2" t="s">
         <v>4</v>
@@ -3549,7 +3564,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3577,7 +3592,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -3615,7 +3630,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -3653,7 +3668,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>17</v>
       </c>
@@ -3691,7 +3706,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>24</v>
       </c>
@@ -3729,7 +3744,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>31</v>
       </c>
@@ -3755,19 +3770,19 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3">
         <v>1</v>
@@ -3803,7 +3818,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>7</v>
       </c>
@@ -3841,7 +3856,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>14</v>
       </c>
@@ -3879,7 +3894,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>21</v>
       </c>
@@ -3917,7 +3932,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>28</v>
       </c>
@@ -3947,16 +3962,16 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="88" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8" t="s">
         <v>4</v>
@@ -3973,7 +3988,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -4005,7 +4020,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>5</v>
       </c>
@@ -4033,7 +4048,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>12</v>
       </c>
@@ -4061,7 +4076,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>19</v>
       </c>
@@ -4091,7 +4106,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -4112,7 +4127,7 @@
       <c r="H26" s="4"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -4146,31 +4161,31 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="4.21875" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" customWidth="1"/>
-    <col min="9" max="9" width="4.5546875" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" customWidth="1"/>
-    <col min="11" max="11" width="4.5546875" customWidth="1"/>
-    <col min="12" max="12" width="3.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" customWidth="1"/>
+    <col min="1" max="7" width="4.28515625" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -4194,7 +4209,7 @@
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="C3" s="18">
         <v>1</v>
@@ -4213,7 +4228,7 @@
       </c>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -4249,7 +4264,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>13</v>
       </c>
@@ -4285,7 +4300,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>20</v>
       </c>
@@ -4317,7 +4332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="25">
         <v>27</v>
       </c>
@@ -4347,16 +4362,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="16"/>
       <c r="I8" t="s">
         <v>4</v>
@@ -4371,7 +4386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -4399,7 +4414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="26">
         <v>4</v>
       </c>
@@ -4436,7 +4451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>11</v>
       </c>
@@ -4473,7 +4488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="33">
         <v>18</v>
       </c>
@@ -4510,7 +4525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="34">
         <v>25</v>
       </c>
@@ -4547,16 +4562,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="16"/>
       <c r="I14" s="24" t="s">
         <v>4</v>
@@ -4572,7 +4587,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
         <v>1</v>
       </c>
@@ -4609,7 +4624,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
         <v>8</v>
       </c>
@@ -4643,7 +4658,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="34">
         <v>15</v>
       </c>
@@ -4680,7 +4695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="34">
         <v>22</v>
       </c>
@@ -4717,7 +4732,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="34">
         <v>29</v>
       </c>
@@ -4744,16 +4759,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="88" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
       <c r="H20" s="16"/>
       <c r="I20" s="24" t="s">
         <v>4</v>
@@ -4769,7 +4784,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B21" s="18"/>
       <c r="C21" s="18">
         <v>1</v>
@@ -4801,7 +4816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -4838,7 +4853,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>13</v>
       </c>
@@ -4874,7 +4889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -4900,7 +4915,7 @@
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>27</v>
       </c>
@@ -4921,7 +4936,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="38"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -4932,13 +4947,13 @@
       <c r="H26" s="16"/>
       <c r="I26" s="38"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I27" s="38"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I28" s="38"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I29" s="38"/>
     </row>
   </sheetData>
@@ -4965,36 +4980,36 @@
       <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="4.5546875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="3.44140625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="3.88671875" style="38" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="38" customWidth="1"/>
-    <col min="11" max="11" width="3.33203125" style="38" customWidth="1"/>
-    <col min="12" max="12" width="2.33203125" style="38" customWidth="1"/>
-    <col min="13" max="13" width="58.88671875" style="38" customWidth="1"/>
-    <col min="14" max="14" width="4.44140625" style="38" customWidth="1"/>
-    <col min="15" max="15" width="6.5546875" style="38"/>
-    <col min="16" max="18" width="6.5546875" style="16"/>
-    <col min="19" max="19" width="6.5546875" style="39"/>
-    <col min="20" max="20" width="31.109375" style="39" customWidth="1"/>
-    <col min="21" max="21" width="34.109375" style="40" customWidth="1"/>
-    <col min="22" max="22" width="6.5546875" style="41"/>
-    <col min="23" max="1014" width="6.5546875" style="16"/>
-    <col min="1016" max="1024" width="11.5546875" customWidth="1"/>
+    <col min="1" max="7" width="4.5703125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="38" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="38" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" style="38" customWidth="1"/>
+    <col min="12" max="12" width="2.28515625" style="38" customWidth="1"/>
+    <col min="13" max="13" width="58.85546875" style="38" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" style="38" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="38"/>
+    <col min="16" max="18" width="6.5703125" style="16"/>
+    <col min="19" max="19" width="6.5703125" style="39"/>
+    <col min="20" max="20" width="31.140625" style="39" customWidth="1"/>
+    <col min="21" max="21" width="34.140625" style="40" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" style="41"/>
+    <col min="23" max="1014" width="6.5703125" style="16"/>
+    <col min="1016" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
       <c r="H1" s="17"/>
       <c r="I1"/>
       <c r="J1"/>
@@ -5061,10 +5076,10 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="S2" s="89">
-        <v>1</v>
-      </c>
-      <c r="T2" s="89" t="s">
+      <c r="S2" s="90">
+        <v>1</v>
+      </c>
+      <c r="T2" s="90" t="s">
         <v>10</v>
       </c>
       <c r="U2" s="43" t="s">
@@ -5112,8 +5127,8 @@
       <c r="L3"/>
       <c r="M3"/>
       <c r="Q3"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
       <c r="U3" s="43" t="s">
         <v>89</v>
       </c>
@@ -5163,8 +5178,8 @@
         <v>90</v>
       </c>
       <c r="Q4"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
       <c r="U4" s="43" t="s">
         <v>91</v>
       </c>
@@ -5222,10 +5237,10 @@
         <v>94</v>
       </c>
       <c r="Q5"/>
-      <c r="S5" s="89">
+      <c r="S5" s="90">
         <v>2</v>
       </c>
-      <c r="T5" s="89" t="s">
+      <c r="T5" s="90" t="s">
         <v>95</v>
       </c>
       <c r="U5" s="43" t="s">
@@ -5279,8 +5294,8 @@
       <c r="O6" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
       <c r="U6" s="43" t="s">
         <v>89</v>
       </c>
@@ -5322,8 +5337,8 @@
       <c r="O7" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
       <c r="U7" s="43" t="s">
         <v>91</v>
       </c>
@@ -5337,15 +5352,15 @@
       <c r="AB7"/>
     </row>
     <row r="8" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
       <c r="I8" s="48"/>
       <c r="J8" s="48"/>
       <c r="K8" s="48"/>
@@ -5355,10 +5370,10 @@
       </c>
       <c r="N8"/>
       <c r="O8"/>
-      <c r="S8" s="89">
+      <c r="S8" s="90">
         <v>3</v>
       </c>
-      <c r="T8" s="89" t="s">
+      <c r="T8" s="90" t="s">
         <v>102</v>
       </c>
       <c r="U8" s="43" t="s">
@@ -5409,23 +5424,23 @@
         <v>21</v>
       </c>
       <c r="N9" s="20"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="89"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
       <c r="U9" s="43" t="s">
         <v>89</v>
       </c>
       <c r="V9" s="44">
         <v>3</v>
       </c>
-      <c r="X9" s="88" t="s">
+      <c r="X9" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="88"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="88"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
     </row>
     <row r="10" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
@@ -5457,8 +5472,8 @@
         <v>23</v>
       </c>
       <c r="N10" s="20"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
       <c r="U10" s="43" t="s">
         <v>91</v>
       </c>
@@ -5523,10 +5538,10 @@
         <v>25</v>
       </c>
       <c r="N11" s="20"/>
-      <c r="S11" s="89">
-        <v>4</v>
-      </c>
-      <c r="T11" s="89" t="s">
+      <c r="S11" s="90">
+        <v>4</v>
+      </c>
+      <c r="T11" s="90" t="s">
         <v>106</v>
       </c>
       <c r="U11" s="43" t="s">
@@ -5596,8 +5611,8 @@
       <c r="O12" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
       <c r="U12" s="43" t="s">
         <v>89</v>
       </c>
@@ -5662,8 +5677,8 @@
         <v>29</v>
       </c>
       <c r="N13" s="20"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
       <c r="U13" s="43" t="s">
         <v>91</v>
       </c>
@@ -5726,10 +5741,10 @@
         <v>31</v>
       </c>
       <c r="N14" s="20"/>
-      <c r="S14" s="89">
+      <c r="S14" s="90">
         <v>5</v>
       </c>
-      <c r="T14" s="89" t="s">
+      <c r="T14" s="90" t="s">
         <v>21</v>
       </c>
       <c r="U14" s="43" t="s">
@@ -5761,15 +5776,15 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
       <c r="I15" s="50" t="s">
         <v>4</v>
       </c>
@@ -5785,8 +5800,8 @@
       </c>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="89"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
       <c r="U15" s="43" t="s">
         <v>89</v>
       </c>
@@ -5843,23 +5858,23 @@
         <v>36</v>
       </c>
       <c r="N16" s="20"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
       <c r="U16" s="43" t="s">
         <v>91</v>
       </c>
       <c r="V16" s="44">
         <v>1</v>
       </c>
-      <c r="X16" s="88" t="s">
+      <c r="X16" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="Y16" s="88"/>
-      <c r="Z16" s="88"/>
-      <c r="AA16" s="88"/>
-      <c r="AB16" s="88"/>
-      <c r="AC16" s="88"/>
-      <c r="AD16" s="88"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="89"/>
     </row>
     <row r="17" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
@@ -5890,10 +5905,10 @@
       <c r="O17" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="S17" s="89">
+      <c r="S17" s="90">
         <v>6</v>
       </c>
-      <c r="T17" s="89" t="s">
+      <c r="T17" s="90" t="s">
         <v>23</v>
       </c>
       <c r="U17" s="43" t="s">
@@ -5965,8 +5980,8 @@
       <c r="O18" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
       <c r="U18" s="43" t="s">
         <v>89</v>
       </c>
@@ -6024,8 +6039,8 @@
       <c r="M19" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
       <c r="U19" s="43" t="s">
         <v>91</v>
       </c>
@@ -6090,10 +6105,10 @@
         <v>45</v>
       </c>
       <c r="P20"/>
-      <c r="S20" s="89">
+      <c r="S20" s="90">
         <v>7</v>
       </c>
-      <c r="T20" s="90" t="s">
+      <c r="T20" s="91" t="s">
         <v>25</v>
       </c>
       <c r="U20" s="43" t="s">
@@ -6167,8 +6182,8 @@
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
       <c r="U21" s="43" t="s">
         <v>89</v>
       </c>
@@ -6228,8 +6243,8 @@
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
       <c r="U22" s="43" t="s">
         <v>91</v>
       </c>
@@ -6262,15 +6277,15 @@
       <c r="AH22"/>
     </row>
     <row r="23" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
       <c r="I23" s="59" t="s">
         <v>1</v>
       </c>
@@ -6285,10 +6300,10 @@
       </c>
       <c r="N23"/>
       <c r="O23"/>
-      <c r="S23" s="89">
+      <c r="S23" s="90">
         <v>8</v>
       </c>
-      <c r="T23" s="90" t="s">
+      <c r="T23" s="91" t="s">
         <v>125</v>
       </c>
       <c r="U23" s="43" t="s">
@@ -6297,15 +6312,15 @@
       <c r="V23" s="44">
         <v>1</v>
       </c>
-      <c r="X23" s="88" t="s">
+      <c r="X23" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="Y23" s="88"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="88"/>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="88"/>
-      <c r="AD23" s="88"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="89"/>
     </row>
     <row r="24" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
@@ -6332,8 +6347,8 @@
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
       <c r="U24" s="43" t="s">
         <v>89</v>
       </c>
@@ -6362,7 +6377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="18">
         <v>1</v>
@@ -6389,8 +6404,8 @@
         <f>18*4</f>
         <v>72</v>
       </c>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
       <c r="U25" s="43" t="s">
         <v>91</v>
       </c>
@@ -6407,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>7</v>
       </c>
@@ -6433,10 +6448,10 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-      <c r="S26" s="89">
+      <c r="S26" s="90">
         <v>9</v>
       </c>
-      <c r="T26" s="90" t="s">
+      <c r="T26" s="91" t="s">
         <v>126</v>
       </c>
       <c r="U26" s="43" t="s">
@@ -6467,7 +6482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>14</v>
       </c>
@@ -6493,8 +6508,8 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
-      <c r="S27" s="89"/>
-      <c r="T27" s="89"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
       <c r="U27" s="43" t="s">
         <v>89</v>
       </c>
@@ -6523,7 +6538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>21</v>
       </c>
@@ -6549,8 +6564,8 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="89"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
       <c r="U28" s="43" t="s">
         <v>91</v>
       </c>
@@ -6579,7 +6594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -6604,10 +6619,10 @@
         <v>127</v>
       </c>
       <c r="P29" s="38"/>
-      <c r="S29" s="89">
+      <c r="S29" s="90">
         <v>10</v>
       </c>
-      <c r="T29" s="90" t="s">
+      <c r="T29" s="91" t="s">
         <v>31</v>
       </c>
       <c r="U29" s="43" t="s">
@@ -6638,7 +6653,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
@@ -6650,8 +6665,8 @@
         <v>6</v>
       </c>
       <c r="P30" s="38"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
       <c r="U30" s="43" t="s">
         <v>89</v>
       </c>
@@ -6668,7 +6683,7 @@
       <c r="AC30" s="18"/>
       <c r="AD30" s="18"/>
     </row>
-    <row r="31" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
@@ -6680,25 +6695,25 @@
         <v>22</v>
       </c>
       <c r="P31" s="38"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
       <c r="U31" s="43" t="s">
         <v>91</v>
       </c>
       <c r="V31" s="44">
         <v>1</v>
       </c>
-      <c r="X31" s="88" t="s">
+      <c r="X31" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="Y31" s="88"/>
-      <c r="Z31" s="88"/>
-      <c r="AA31" s="88"/>
-      <c r="AB31" s="88"/>
-      <c r="AC31" s="88"/>
-      <c r="AD31" s="88"/>
-    </row>
-    <row r="32" spans="1:34" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="89"/>
+      <c r="AD31" s="89"/>
+    </row>
+    <row r="32" spans="1:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
@@ -6710,10 +6725,10 @@
         <v>32</v>
       </c>
       <c r="P32" s="38"/>
-      <c r="S32" s="89">
+      <c r="S32" s="90">
         <v>11</v>
       </c>
-      <c r="T32" s="90" t="s">
+      <c r="T32" s="91" t="s">
         <v>33</v>
       </c>
       <c r="U32" s="43" t="s">
@@ -6744,7 +6759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:30" ht="15" x14ac:dyDescent="0.25">
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
@@ -6756,8 +6771,8 @@
         <v>2</v>
       </c>
       <c r="P33" s="38"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
       <c r="U33" s="43" t="s">
         <v>89</v>
       </c>
@@ -6785,7 +6800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:30" ht="15" x14ac:dyDescent="0.25">
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
@@ -6797,8 +6812,8 @@
         <v>4</v>
       </c>
       <c r="P34" s="38"/>
-      <c r="S34" s="89"/>
-      <c r="T34" s="89"/>
+      <c r="S34" s="90"/>
+      <c r="T34" s="90"/>
       <c r="U34" s="43" t="s">
         <v>91</v>
       </c>
@@ -6828,7 +6843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="10:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:30" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
@@ -6840,10 +6855,10 @@
       <c r="P35" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="S35" s="89">
-        <v>12</v>
-      </c>
-      <c r="T35" s="90" t="s">
+      <c r="S35" s="90">
+        <v>12</v>
+      </c>
+      <c r="T35" s="91" t="s">
         <v>134</v>
       </c>
       <c r="U35" s="43" t="s">
@@ -6875,12 +6890,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:30" ht="15" x14ac:dyDescent="0.25">
       <c r="N36" s="16"/>
       <c r="O36"/>
       <c r="P36"/>
-      <c r="S36" s="89"/>
-      <c r="T36" s="89"/>
+      <c r="S36" s="90"/>
+      <c r="T36" s="90"/>
       <c r="U36" s="43" t="s">
         <v>89</v>
       </c>
@@ -6910,7 +6925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:30" ht="15" x14ac:dyDescent="0.25">
       <c r="N37" s="16"/>
       <c r="O37" s="62">
         <f>(O35-2)/4</f>
@@ -6919,8 +6934,8 @@
       <c r="P37" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="S37" s="89"/>
-      <c r="T37" s="89"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
       <c r="U37" s="43" t="s">
         <v>91</v>
       </c>
@@ -6944,7 +6959,7 @@
       <c r="AC37" s="18"/>
       <c r="AD37" s="18"/>
     </row>
-    <row r="38" spans="10:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:30" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N38" s="16"/>
       <c r="O38" s="16">
         <v>1</v>
@@ -6952,10 +6967,10 @@
       <c r="P38" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="S38" s="89">
+      <c r="S38" s="90">
         <v>13</v>
       </c>
-      <c r="T38" s="90" t="s">
+      <c r="T38" s="91" t="s">
         <v>136</v>
       </c>
       <c r="U38" s="43" t="s">
@@ -6966,9 +6981,9 @@
       </c>
       <c r="W38"/>
     </row>
-    <row r="39" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="S39" s="89"/>
-      <c r="T39" s="89"/>
+    <row r="39" spans="10:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
       <c r="U39" s="43" t="s">
         <v>89</v>
       </c>
@@ -6978,9 +6993,9 @@
       <c r="W39"/>
       <c r="X39"/>
     </row>
-    <row r="40" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="S40" s="89"/>
-      <c r="T40" s="89"/>
+    <row r="40" spans="10:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="S40" s="90"/>
+      <c r="T40" s="90"/>
       <c r="U40" s="43" t="s">
         <v>91</v>
       </c>
@@ -6996,11 +7011,11 @@
       <c r="AC40"/>
       <c r="AD40"/>
     </row>
-    <row r="41" spans="10:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S41" s="89">
+    <row r="41" spans="10:30" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S41" s="90">
         <v>14</v>
       </c>
-      <c r="T41" s="90" t="s">
+      <c r="T41" s="91" t="s">
         <v>137</v>
       </c>
       <c r="U41" s="43" t="s">
@@ -7018,9 +7033,9 @@
       <c r="AC41"/>
       <c r="AD41"/>
     </row>
-    <row r="42" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
+    <row r="42" spans="10:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="S42" s="90"/>
+      <c r="T42" s="90"/>
       <c r="U42" s="43" t="s">
         <v>89</v>
       </c>
@@ -7036,9 +7051,9 @@
       <c r="AC42"/>
       <c r="AD42"/>
     </row>
-    <row r="43" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="S43" s="89"/>
-      <c r="T43" s="89"/>
+    <row r="43" spans="10:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="S43" s="90"/>
+      <c r="T43" s="90"/>
       <c r="U43" s="43" t="s">
         <v>91</v>
       </c>
@@ -7046,11 +7061,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="10:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S44" s="89">
+    <row r="44" spans="10:30" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S44" s="90">
         <v>15</v>
       </c>
-      <c r="T44" s="90" t="s">
+      <c r="T44" s="91" t="s">
         <v>138</v>
       </c>
       <c r="U44" s="43" t="s">
@@ -7060,9 +7075,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="S45" s="89"/>
-      <c r="T45" s="89"/>
+    <row r="45" spans="10:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="S45" s="90"/>
+      <c r="T45" s="90"/>
       <c r="U45" s="43" t="s">
         <v>89</v>
       </c>
@@ -7070,9 +7085,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="S46" s="89"/>
-      <c r="T46" s="89"/>
+    <row r="46" spans="10:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="S46" s="90"/>
+      <c r="T46" s="90"/>
       <c r="U46" s="43" t="s">
         <v>91</v>
       </c>
@@ -7080,11 +7095,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="10:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S47" s="89">
+    <row r="47" spans="10:30" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S47" s="90">
         <v>16</v>
       </c>
-      <c r="T47" s="90" t="s">
+      <c r="T47" s="91" t="s">
         <v>139</v>
       </c>
       <c r="U47" s="43" t="s">
@@ -7094,9 +7109,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="10:30" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="S48" s="89"/>
-      <c r="T48" s="89"/>
+    <row r="48" spans="10:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="S48" s="90"/>
+      <c r="T48" s="90"/>
       <c r="U48" s="43" t="s">
         <v>89</v>
       </c>
@@ -7104,9 +7119,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="S49" s="89"/>
-      <c r="T49" s="89"/>
+    <row r="49" spans="13:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="S49" s="90"/>
+      <c r="T49" s="90"/>
       <c r="U49" s="43" t="s">
         <v>91</v>
       </c>
@@ -7114,12 +7129,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="13:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="13:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M50" s="24"/>
-      <c r="S50" s="89">
+      <c r="S50" s="90">
         <v>17</v>
       </c>
-      <c r="T50" s="90" t="s">
+      <c r="T50" s="91" t="s">
         <v>140</v>
       </c>
       <c r="U50" s="43" t="s">
@@ -7129,10 +7144,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="13:22" ht="15" x14ac:dyDescent="0.25">
       <c r="M51" s="24"/>
-      <c r="S51" s="89"/>
-      <c r="T51" s="90"/>
+      <c r="S51" s="90"/>
+      <c r="T51" s="91"/>
       <c r="U51" s="43" t="s">
         <v>89</v>
       </c>
@@ -7140,10 +7155,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="13:22" ht="15" x14ac:dyDescent="0.25">
       <c r="M52" s="24"/>
-      <c r="S52" s="89"/>
-      <c r="T52" s="89"/>
+      <c r="S52" s="90"/>
+      <c r="T52" s="90"/>
       <c r="U52" s="43" t="s">
         <v>91</v>
       </c>
@@ -7151,12 +7166,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="13:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="13:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M53" s="24"/>
-      <c r="S53" s="89">
+      <c r="S53" s="90">
         <v>18</v>
       </c>
-      <c r="T53" s="90" t="s">
+      <c r="T53" s="91" t="s">
         <v>141</v>
       </c>
       <c r="U53" s="43" t="s">
@@ -7166,10 +7181,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="13:22" ht="15" x14ac:dyDescent="0.25">
       <c r="M54" s="24"/>
-      <c r="S54" s="89"/>
-      <c r="T54" s="89"/>
+      <c r="S54" s="90"/>
+      <c r="T54" s="90"/>
       <c r="U54" s="43" t="s">
         <v>89</v>
       </c>
@@ -7177,10 +7192,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="13:22" ht="15" x14ac:dyDescent="0.25">
       <c r="M55" s="24"/>
-      <c r="S55" s="89"/>
-      <c r="T55" s="89"/>
+      <c r="S55" s="90"/>
+      <c r="T55" s="90"/>
       <c r="U55" s="43" t="s">
         <v>91</v>
       </c>
@@ -7188,7 +7203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="13:22" ht="15" x14ac:dyDescent="0.25">
       <c r="M56" s="24"/>
       <c r="S56" s="42">
         <v>19</v>
@@ -7201,7 +7216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="13:22" ht="15" x14ac:dyDescent="0.25">
       <c r="S57" s="42">
         <v>20</v>
       </c>
@@ -7213,7 +7228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="13:22" x14ac:dyDescent="0.2">
       <c r="U58" s="63" t="s">
         <v>144</v>
       </c>
@@ -7222,7 +7237,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="13:22" ht="15" x14ac:dyDescent="0.25">
       <c r="U59" s="43" t="s">
         <v>84</v>
       </c>
@@ -7231,7 +7246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="13:22" ht="15" x14ac:dyDescent="0.25">
       <c r="U60" s="43" t="s">
         <v>89</v>
       </c>
@@ -7240,7 +7255,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="13:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="13:22" ht="15" x14ac:dyDescent="0.25">
       <c r="U61" s="43" t="s">
         <v>91</v>
       </c>
@@ -7249,11 +7264,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="13:22" x14ac:dyDescent="0.2">
       <c r="U62" s="63"/>
       <c r="V62" s="64"/>
     </row>
-    <row r="63" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="13:22" x14ac:dyDescent="0.2">
       <c r="U63" s="40" t="s">
         <v>145</v>
       </c>
@@ -7262,7 +7277,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="13:22" x14ac:dyDescent="0.2">
       <c r="U64" s="64" t="s">
         <v>146</v>
       </c>
@@ -7273,40 +7288,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="T8:T10"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="S20:S22"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="S26:S28"/>
-    <mergeCell ref="T26:T28"/>
-    <mergeCell ref="S29:S31"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="X31:AD31"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="S35:S37"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="S38:S40"/>
-    <mergeCell ref="T38:T40"/>
     <mergeCell ref="S50:S52"/>
     <mergeCell ref="T50:T52"/>
     <mergeCell ref="S53:S55"/>
@@ -7317,6 +7298,40 @@
     <mergeCell ref="T44:T46"/>
     <mergeCell ref="S47:S49"/>
     <mergeCell ref="T47:T49"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T34"/>
+    <mergeCell ref="S35:S37"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="S38:S40"/>
+    <mergeCell ref="T38:T40"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="S26:S28"/>
+    <mergeCell ref="T26:T28"/>
+    <mergeCell ref="S29:S31"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="X31:AD31"/>
+    <mergeCell ref="S20:S22"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="T8:T10"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T5:T7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -7335,39 +7350,39 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="15" width="4.5546875" style="16" customWidth="1"/>
-    <col min="16" max="16" width="6.5546875" style="16"/>
-    <col min="17" max="17" width="3.88671875" style="38" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="38" customWidth="1"/>
-    <col min="19" max="19" width="2.77734375" style="38" customWidth="1"/>
-    <col min="20" max="20" width="2.44140625" style="38" customWidth="1"/>
-    <col min="21" max="21" width="58.88671875" style="38" customWidth="1"/>
-    <col min="22" max="22" width="4.44140625" style="38" customWidth="1"/>
-    <col min="23" max="23" width="6.5546875" style="38"/>
-    <col min="24" max="1023" width="6.5546875" style="16"/>
+    <col min="1" max="15" width="4.5703125" style="16" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="16"/>
+    <col min="17" max="17" width="3.85546875" style="38" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="38" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="38" customWidth="1"/>
+    <col min="20" max="20" width="2.42578125" style="38" customWidth="1"/>
+    <col min="21" max="21" width="58.85546875" style="38" customWidth="1"/>
+    <col min="22" max="22" width="4.42578125" style="38" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" style="38"/>
+    <col min="24" max="1023" width="6.5703125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="I1" s="88" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="I1" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
       <c r="Q1" s="50" t="s">
         <v>1</v>
       </c>
@@ -7384,7 +7399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -7451,7 +7466,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -7498,7 +7513,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -7564,7 +7579,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>9</v>
       </c>
@@ -7630,7 +7645,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52">
         <v>16</v>
       </c>
@@ -7691,7 +7706,7 @@
       </c>
       <c r="V6" s="20"/>
     </row>
-    <row r="7" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52">
         <v>23</v>
       </c>
@@ -7750,7 +7765,7 @@
       </c>
       <c r="V7" s="20"/>
     </row>
-    <row r="8" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="69">
         <v>30</v>
       </c>
@@ -7785,7 +7800,7 @@
       </c>
       <c r="V8" s="20"/>
     </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -7822,26 +7837,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
+    <row r="10" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="88" t="s">
+      <c r="I10" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
       <c r="Q10" s="50" t="s">
         <v>1</v>
       </c>
@@ -7859,7 +7874,7 @@
       </c>
       <c r="V10" s="20"/>
     </row>
-    <row r="11" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>1</v>
       </c>
@@ -7920,7 +7935,7 @@
       </c>
       <c r="V11" s="20"/>
     </row>
-    <row r="12" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="18">
         <v>1</v>
@@ -7968,7 +7983,7 @@
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
     </row>
-    <row r="13" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="52">
         <v>7</v>
       </c>
@@ -8029,7 +8044,7 @@
       </c>
       <c r="V13" s="20"/>
     </row>
-    <row r="14" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="70">
         <v>14</v>
       </c>
@@ -8095,7 +8110,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="52">
         <v>21</v>
       </c>
@@ -8161,7 +8176,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52">
         <v>28</v>
       </c>
@@ -8215,7 +8230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -8251,7 +8266,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q18" s="28" t="s">
         <v>1</v>
       </c>
@@ -8290,7 +8305,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
